--- a/tables/S5_SWIP-TMT_Module_GOF.xlsx
+++ b/tables/S5_SWIP-TMT_Module_GOF.xlsx
@@ -47,142 +47,142 @@
     <t xml:space="preserve">Quality</t>
   </si>
   <si>
+    <t xml:space="preserve">M26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M40</t>
+  </si>
+  <si>
     <t xml:space="preserve">M27</t>
   </si>
   <si>
-    <t xml:space="preserve">M36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M33</t>
+    <t xml:space="preserve">M6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M10</t>
   </si>
   <si>
     <t xml:space="preserve">M18</t>
   </si>
   <si>
-    <t xml:space="preserve">M28</t>
+    <t xml:space="preserve">M22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M42</t>
   </si>
   <si>
     <t xml:space="preserve">M38</t>
   </si>
   <si>
+    <t xml:space="preserve">M2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M43</t>
+  </si>
+  <si>
     <t xml:space="preserve">M44</t>
   </si>
   <si>
-    <t xml:space="preserve">M21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M37</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M41</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M15</t>
-  </si>
-  <si>
     <t xml:space="preserve">M46</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M39</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M47</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M43</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M48</t>
   </si>
 </sst>
 </file>
@@ -554,34 +554,34 @@
         <v>11</v>
       </c>
       <c r="B2" t="n">
-        <v>0.123153957331955</v>
+        <v>0.117089762788617</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0719146502058468</v>
+        <v>0.112504006583914</v>
       </c>
       <c r="D2" t="n">
-        <v>0.000256187552091959</v>
+        <v>0.00142862602388097</v>
       </c>
       <c r="E2" t="n">
-        <v>0.255365678808135</v>
+        <v>0.206818319674744</v>
       </c>
       <c r="F2" t="n">
-        <v>0.549309526101971</v>
+        <v>0.562159284928845</v>
       </c>
       <c r="G2" t="n">
-        <v>0.15141249759081</v>
+        <v>0.17047232590229</v>
       </c>
       <c r="H2" t="n">
-        <v>0.42071626210376</v>
+        <v>0.3947821048651</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="K2" t="n">
-        <v>0.535651647532585</v>
+        <v>0.439223990279827</v>
       </c>
     </row>
     <row r="3">
@@ -589,34 +589,34 @@
         <v>12</v>
       </c>
       <c r="B3" t="n">
-        <v>0.262432754994064</v>
+        <v>0.195520279947373</v>
       </c>
       <c r="C3" t="n">
-        <v>0.064658104690033</v>
+        <v>0.0696056241276767</v>
       </c>
       <c r="D3" t="n">
-        <v>0.00109782065912704</v>
+        <v>0.00447948500297196</v>
       </c>
       <c r="E3" t="n">
-        <v>0.331011819881169</v>
+        <v>0.202281335348951</v>
       </c>
       <c r="F3" t="n">
-        <v>0.340799499775607</v>
+        <v>0.528113275573028</v>
       </c>
       <c r="G3" t="n">
-        <v>0.277438671207983</v>
+        <v>0.217293348396496</v>
       </c>
       <c r="H3" t="n">
-        <v>0.633587744068801</v>
+        <v>0.43704641814288</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="K3" t="n">
-        <v>0.806677444009061</v>
+        <v>0.486246132609824</v>
       </c>
     </row>
     <row r="4">
@@ -624,34 +624,34 @@
         <v>13</v>
       </c>
       <c r="B4" t="n">
-        <v>0.112904354493972</v>
+        <v>0.556212408928478</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0438655608959459</v>
+        <v>0.0298782658342788</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0124699421639805</v>
+        <v>0.00050491052044955</v>
       </c>
       <c r="E4" t="n">
-        <v>0.272763810120098</v>
+        <v>0.122729673775406</v>
       </c>
       <c r="F4" t="n">
-        <v>0.557996332326004</v>
+        <v>0.290674740941387</v>
       </c>
       <c r="G4" t="n">
-        <v>0.129395721963418</v>
+        <v>0.543790852974784</v>
       </c>
       <c r="H4" t="n">
-        <v>0.424938683162584</v>
+        <v>0.679745552756381</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>73</v>
+        <v>231</v>
       </c>
       <c r="K4" t="n">
-        <v>0.541027590895045</v>
+        <v>0.756266685792773</v>
       </c>
     </row>
     <row r="5">
@@ -659,34 +659,34 @@
         <v>14</v>
       </c>
       <c r="B5" t="n">
-        <v>0.286989967875827</v>
+        <v>0.30264001587913</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0323525645660407</v>
+        <v>0.0295745783154117</v>
       </c>
       <c r="D5" t="n">
-        <v>0.000892991613000223</v>
+        <v>0.00120973091705281</v>
       </c>
       <c r="E5" t="n">
-        <v>0.278149364762658</v>
+        <v>0.277232716190938</v>
       </c>
       <c r="F5" t="n">
-        <v>0.401615111182475</v>
+        <v>0.389342958697468</v>
       </c>
       <c r="G5" t="n">
-        <v>0.280134780596844</v>
+        <v>0.293668218240398</v>
       </c>
       <c r="H5" t="n">
-        <v>0.575686727933608</v>
+        <v>0.58649204270463</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="K5" t="n">
-        <v>0.732958461691764</v>
+        <v>0.652515329569252</v>
       </c>
     </row>
     <row r="6">
@@ -694,34 +694,34 @@
         <v>15</v>
       </c>
       <c r="B6" t="n">
-        <v>0.638534308674026</v>
+        <v>0.480148187606785</v>
       </c>
       <c r="C6" t="n">
-        <v>0.027616448366041</v>
+        <v>0.0270961651735561</v>
       </c>
       <c r="D6" t="n">
-        <v>0.00144462556430807</v>
+        <v>0.00791654744983602</v>
       </c>
       <c r="E6" t="n">
-        <v>0.129991985896181</v>
+        <v>0.111142063858533</v>
       </c>
       <c r="F6" t="n">
-        <v>0.202412631499444</v>
+        <v>0.37369703591129</v>
       </c>
       <c r="G6" t="n">
-        <v>0.627884301705058</v>
+        <v>0.46643157315787</v>
       </c>
       <c r="H6" t="n">
-        <v>0.774719534591773</v>
+        <v>0.58740512666838</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>159</v>
+        <v>48</v>
       </c>
       <c r="K6" t="n">
-        <v>0.986364998121741</v>
+        <v>0.653531202317983</v>
       </c>
     </row>
     <row r="7">
@@ -729,34 +729,34 @@
         <v>16</v>
       </c>
       <c r="B7" t="n">
-        <v>0.39738256873812</v>
+        <v>0.543914577095293</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0184686593091046</v>
+        <v>0.0204590897126735</v>
       </c>
       <c r="D7" t="n">
-        <v>0.00328586205576875</v>
+        <v>0.00320263580282774</v>
       </c>
       <c r="E7" t="n">
-        <v>0.277846476374375</v>
+        <v>0.163365875585168</v>
       </c>
       <c r="F7" t="n">
-        <v>0.303016433522633</v>
+        <v>0.269057821804039</v>
       </c>
       <c r="G7" t="n">
-        <v>0.375231574695412</v>
+        <v>0.523174406244546</v>
       </c>
       <c r="H7" t="n">
-        <v>0.67619597204768</v>
+        <v>0.70405202026012</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>92</v>
+        <v>127</v>
       </c>
       <c r="K7" t="n">
-        <v>0.860925804652896</v>
+        <v>0.783309410159032</v>
       </c>
     </row>
     <row r="8">
@@ -764,34 +764,34 @@
         <v>17</v>
       </c>
       <c r="B8" t="n">
-        <v>0.576438611382985</v>
+        <v>0.161049678244145</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0161401492860842</v>
+        <v>0.0186236925005829</v>
       </c>
       <c r="D8" t="n">
-        <v>0.00188808410741191</v>
+        <v>0.000145030444802936</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0296145294964779</v>
+        <v>0.537410807089467</v>
       </c>
       <c r="F8" t="n">
-        <v>0.375918625727041</v>
+        <v>0.282770791721001</v>
       </c>
       <c r="G8" t="n">
-        <v>0.555990940600275</v>
+        <v>0.157348208449542</v>
       </c>
       <c r="H8" t="n">
-        <v>0.590674312971051</v>
+        <v>0.710408795068339</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="K8" t="n">
-        <v>0.752040501871758</v>
+        <v>0.790381787458228</v>
       </c>
     </row>
     <row r="9">
@@ -799,34 +799,34 @@
         <v>18</v>
       </c>
       <c r="B9" t="n">
-        <v>0.216608282671275</v>
+        <v>0.0667722040834674</v>
       </c>
       <c r="C9" t="n">
-        <v>0.00883831226542126</v>
+        <v>0.00558034635319756</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0124401453287527</v>
+        <v>0.00930578691764429</v>
       </c>
       <c r="E9" t="n">
-        <v>0.163819662560187</v>
+        <v>0.493202640638415</v>
       </c>
       <c r="F9" t="n">
-        <v>0.598293597174364</v>
+        <v>0.425139022007276</v>
       </c>
       <c r="G9" t="n">
-        <v>0.201984239613588</v>
+        <v>0.0772560826898578</v>
       </c>
       <c r="H9" t="n">
-        <v>0.383119509415254</v>
+        <v>0.555373426994577</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="K9" t="n">
-        <v>0.487783846039078</v>
+        <v>0.617893591664429</v>
       </c>
     </row>
     <row r="10">
@@ -834,34 +834,34 @@
         <v>19</v>
       </c>
       <c r="B10" t="n">
-        <v>0.471392731660988</v>
+        <v>0.467854268903031</v>
       </c>
       <c r="C10" t="n">
-        <v>0.00786603703905587</v>
+        <v>0.00511970651344803</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>0.000827631976628323</v>
       </c>
       <c r="E10" t="n">
-        <v>0.253640192516264</v>
+        <v>0.273544814838147</v>
       </c>
       <c r="F10" t="n">
-        <v>0.267101038783692</v>
+        <v>0.252653577768746</v>
       </c>
       <c r="G10" t="n">
-        <v>0.440479245183615</v>
+        <v>0.434432888171143</v>
       </c>
       <c r="H10" t="n">
-        <v>0.713484712390902</v>
+        <v>0.72770927985092</v>
       </c>
       <c r="I10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>133</v>
+        <v>78</v>
       </c>
       <c r="K10" t="n">
-        <v>0.908401447974559</v>
+        <v>0.809629843199197</v>
       </c>
     </row>
     <row r="11">
@@ -869,34 +869,34 @@
         <v>20</v>
       </c>
       <c r="B11" t="n">
-        <v>0.298729914640455</v>
+        <v>0.217522944717934</v>
       </c>
       <c r="C11" t="n">
-        <v>0.00786318581129826</v>
+        <v>0.00486542186728067</v>
       </c>
       <c r="D11" t="n">
-        <v>0.00716338125147197</v>
+        <v>0.00269954726929926</v>
       </c>
       <c r="E11" t="n">
-        <v>0.435647752678038</v>
+        <v>0.100763726770582</v>
       </c>
       <c r="F11" t="n">
-        <v>0.250595765618736</v>
+        <v>0.674148359374904</v>
       </c>
       <c r="G11" t="n">
-        <v>0.276422135206381</v>
+        <v>0.200313079784921</v>
       </c>
       <c r="H11" t="n">
-        <v>0.73892722165638</v>
+        <v>0.303069845535876</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="K11" t="n">
-        <v>0.940794590890569</v>
+        <v>0.337187388306885</v>
       </c>
     </row>
     <row r="12">
@@ -904,34 +904,34 @@
         <v>21</v>
       </c>
       <c r="B12" t="n">
-        <v>0.754826318490915</v>
+        <v>0.766561010091852</v>
       </c>
       <c r="C12" t="n">
-        <v>0.00710869346121311</v>
+        <v>0.00464994930015444</v>
       </c>
       <c r="D12" t="n">
-        <v>0.00245224963377741</v>
+        <v>0.00152451891381977</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0317439461658805</v>
+        <v>0.0478703749295109</v>
       </c>
       <c r="F12" t="n">
-        <v>0.203868792248214</v>
+        <v>0.179394146764663</v>
       </c>
       <c r="G12" t="n">
-        <v>0.733076264527982</v>
+        <v>0.744731168409566</v>
       </c>
       <c r="H12" t="n">
-        <v>0.771576864703872</v>
+        <v>0.79835573913784</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>95</v>
+        <v>269</v>
       </c>
       <c r="K12" t="n">
-        <v>0.982363782921055</v>
+        <v>0.888229200578238</v>
       </c>
     </row>
     <row r="13">
@@ -939,34 +939,34 @@
         <v>22</v>
       </c>
       <c r="B13" t="n">
-        <v>0.765784461493116</v>
+        <v>0.484456520399459</v>
       </c>
       <c r="C13" t="n">
-        <v>0.00471758506475105</v>
+        <v>0.00398608733642942</v>
       </c>
       <c r="D13" t="n">
-        <v>0.00145166204044682</v>
+        <v>0.00123634607776914</v>
       </c>
       <c r="E13" t="n">
-        <v>0.0516457543511557</v>
+        <v>0.22345683439817</v>
       </c>
       <c r="F13" t="n">
-        <v>0.17640053705053</v>
+        <v>0.286864211788172</v>
       </c>
       <c r="G13" t="n">
-        <v>0.743338873406178</v>
+        <v>0.450298164269075</v>
       </c>
       <c r="H13" t="n">
-        <v>0.803197011885198</v>
+        <v>0.69163389369714</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>253</v>
+        <v>115</v>
       </c>
       <c r="K13" t="n">
-        <v>1.02262223133046</v>
+        <v>0.769493335333007</v>
       </c>
     </row>
     <row r="14">
@@ -974,34 +974,34 @@
         <v>23</v>
       </c>
       <c r="B14" t="n">
-        <v>0.577035278264018</v>
+        <v>0.290289922057192</v>
       </c>
       <c r="C14" t="n">
-        <v>0.00440305300817728</v>
+        <v>0.00320880001182983</v>
       </c>
       <c r="D14" t="n">
-        <v>0.00153330239377044</v>
+        <v>0.00255140656257823</v>
       </c>
       <c r="E14" t="n">
-        <v>0.145674265922875</v>
+        <v>0.195644422484868</v>
       </c>
       <c r="F14" t="n">
-        <v>0.271354100411159</v>
+        <v>0.508305448883531</v>
       </c>
       <c r="G14" t="n">
-        <v>0.544316896084798</v>
+        <v>0.267065227738394</v>
       </c>
       <c r="H14" t="n">
-        <v>0.70503867970055</v>
+        <v>0.468956430949966</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>114</v>
+        <v>65</v>
       </c>
       <c r="K14" t="n">
-        <v>0.897648045424635</v>
+        <v>0.521748357716502</v>
       </c>
     </row>
     <row r="15">
@@ -1009,34 +1009,34 @@
         <v>24</v>
       </c>
       <c r="B15" t="n">
-        <v>0.402228457868992</v>
+        <v>0.0672270517978348</v>
       </c>
       <c r="C15" t="n">
-        <v>0.00322182546266484</v>
+        <v>0.00289598549207456</v>
       </c>
       <c r="D15" t="n">
-        <v>0.00173203506221855</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0.363606706113111</v>
+        <v>0.786426382520151</v>
       </c>
       <c r="F15" t="n">
-        <v>0.229210975493014</v>
+        <v>0.14345058018994</v>
       </c>
       <c r="G15" t="n">
-        <v>0.369964700064481</v>
+        <v>0.0689533262603746</v>
       </c>
       <c r="H15" t="n">
-        <v>0.75789230581198</v>
+        <v>0.85795560727966</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>75</v>
+        <v>7</v>
       </c>
       <c r="K15" t="n">
-        <v>0.964940742319904</v>
+        <v>0.95453841668201</v>
       </c>
     </row>
     <row r="16">
@@ -1044,34 +1044,34 @@
         <v>25</v>
       </c>
       <c r="B16" t="n">
-        <v>0.456339207989838</v>
+        <v>0.267261540759352</v>
       </c>
       <c r="C16" t="n">
-        <v>0.00305952333928552</v>
+        <v>0.00226215124551505</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>0.000879566439681236</v>
       </c>
       <c r="E16" t="n">
-        <v>0.168529755296141</v>
+        <v>0.458728919862272</v>
       </c>
       <c r="F16" t="n">
-        <v>0.372071513374736</v>
+        <v>0.27086782169318</v>
       </c>
       <c r="G16" t="n">
-        <v>0.421515046617225</v>
+        <v>0.241165027648891</v>
       </c>
       <c r="H16" t="n">
-        <v>0.601684466338964</v>
+        <v>0.717141385903593</v>
       </c>
       <c r="I16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="K16" t="n">
-        <v>0.766058516677315</v>
+        <v>0.797872287597772</v>
       </c>
     </row>
     <row r="17">
@@ -1079,34 +1079,34 @@
         <v>26</v>
       </c>
       <c r="B17" t="n">
-        <v>0.841332204091853</v>
+        <v>0.613742601018099</v>
       </c>
       <c r="C17" t="n">
-        <v>0.00296457239283919</v>
+        <v>0.00223234756180933</v>
       </c>
       <c r="D17" t="n">
-        <v>0.00201672080407575</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0.0121551519296672</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0.141531350781565</v>
+        <v>0.384025051420092</v>
       </c>
       <c r="G17" t="n">
-        <v>0.823318511790078</v>
+        <v>0.580813392035109</v>
       </c>
       <c r="H17" t="n">
-        <v>0.839469835111102</v>
+        <v>0.580813392035109</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" t="n">
-        <v>105</v>
+        <v>40</v>
       </c>
       <c r="K17" t="n">
-        <v>1.06880441935537</v>
+        <v>0.646197415014021</v>
       </c>
     </row>
     <row r="18">
@@ -1114,34 +1114,34 @@
         <v>27</v>
       </c>
       <c r="B18" t="n">
-        <v>0.450263904185089</v>
+        <v>0.291064095536274</v>
       </c>
       <c r="C18" t="n">
-        <v>0.00225093867238918</v>
+        <v>0.00219011356863431</v>
       </c>
       <c r="D18" t="n">
-        <v>0.00166487910785228</v>
+        <v>0.00195996259256943</v>
       </c>
       <c r="E18" t="n">
-        <v>0.225500713292634</v>
+        <v>0.413456401913697</v>
       </c>
       <c r="F18" t="n">
-        <v>0.320319564742035</v>
+        <v>0.291329426388825</v>
       </c>
       <c r="G18" t="n">
-        <v>0.41508515856435</v>
+        <v>0.269502345693775</v>
       </c>
       <c r="H18" t="n">
-        <v>0.657754440335835</v>
+        <v>0.693597021319074</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>74</v>
+        <v>15</v>
       </c>
       <c r="K18" t="n">
-        <v>0.837446234847158</v>
+        <v>0.771677458516173</v>
       </c>
     </row>
     <row r="19">
@@ -1149,34 +1149,34 @@
         <v>28</v>
       </c>
       <c r="B19" t="n">
-        <v>0.645271081636493</v>
+        <v>0.620544808437823</v>
       </c>
       <c r="C19" t="n">
-        <v>0.00217149182124923</v>
+        <v>0.00152335626765272</v>
       </c>
       <c r="D19" t="n">
-        <v>0.000430574837732664</v>
+        <v>0.000884175818267706</v>
       </c>
       <c r="E19" t="n">
-        <v>0.0362180108328556</v>
+        <v>0.101083803748715</v>
       </c>
       <c r="F19" t="n">
-        <v>0.315908840871669</v>
+        <v>0.275963855727541</v>
       </c>
       <c r="G19" t="n">
-        <v>0.612095825863763</v>
+        <v>0.585473137873552</v>
       </c>
       <c r="H19" t="n">
-        <v>0.652489000457301</v>
+        <v>0.696841126943101</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>101</v>
+        <v>123</v>
       </c>
       <c r="K19" t="n">
-        <v>0.830742330577289</v>
+        <v>0.775286763496096</v>
       </c>
     </row>
     <row r="20">
@@ -1184,34 +1184,34 @@
         <v>29</v>
       </c>
       <c r="B20" t="n">
-        <v>0.630849221453653</v>
+        <v>0.714058040247069</v>
       </c>
       <c r="C20" t="n">
-        <v>0.00175747487284659</v>
+        <v>0.00147046424618289</v>
       </c>
       <c r="D20" t="n">
-        <v>0.000803526039982806</v>
+        <v>0.000790516767697605</v>
       </c>
       <c r="E20" t="n">
-        <v>0.103854094822356</v>
+        <v>0.0964332699773333</v>
       </c>
       <c r="F20" t="n">
-        <v>0.262735682811161</v>
+        <v>0.187247708761717</v>
       </c>
       <c r="G20" t="n">
-        <v>0.596329928191898</v>
+        <v>0.685037815495985</v>
       </c>
       <c r="H20" t="n">
-        <v>0.711373179663172</v>
+        <v>0.791787786153649</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>116</v>
+        <v>348</v>
       </c>
       <c r="K20" t="n">
-        <v>0.905713066073722</v>
+        <v>0.880921872099729</v>
       </c>
     </row>
     <row r="21">
@@ -1219,34 +1219,34 @@
         <v>30</v>
       </c>
       <c r="B21" t="n">
-        <v>0.620372976941696</v>
+        <v>0.425412658907113</v>
       </c>
       <c r="C21" t="n">
-        <v>0.00158431355341911</v>
+        <v>0.00117775247176176</v>
       </c>
       <c r="D21" t="n">
-        <v>0.00181650632998066</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0.120788516450164</v>
+        <v>0.160274724421437</v>
       </c>
       <c r="F21" t="n">
-        <v>0.25543768672474</v>
+        <v>0.413134864199689</v>
       </c>
       <c r="G21" t="n">
-        <v>0.586630782118083</v>
+        <v>0.390253892538015</v>
       </c>
       <c r="H21" t="n">
-        <v>0.721151175986774</v>
+        <v>0.560581236564767</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="K21" t="n">
-        <v>0.918162311116247</v>
+        <v>0.62368766103041</v>
       </c>
     </row>
     <row r="22">
@@ -1254,34 +1254,34 @@
         <v>31</v>
       </c>
       <c r="B22" t="n">
-        <v>0.82876450101747</v>
+        <v>0.513167534796246</v>
       </c>
       <c r="C22" t="n">
-        <v>0.00151469549966137</v>
+        <v>0.000526538244598275</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>0.000308092970390875</v>
       </c>
       <c r="E22" t="n">
-        <v>0.0542318400423699</v>
+        <v>0.19469409995433</v>
       </c>
       <c r="F22" t="n">
-        <v>0.115488963440499</v>
+        <v>0.291303734034435</v>
       </c>
       <c r="G22" t="n">
-        <v>0.807577711199214</v>
+        <v>0.475148658961145</v>
       </c>
       <c r="H22" t="n">
-        <v>0.869203660878594</v>
+        <v>0.685539779593417</v>
       </c>
       <c r="I22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>167</v>
+        <v>344</v>
       </c>
       <c r="K22" t="n">
-        <v>1.10666122260838</v>
+        <v>0.762713187294706</v>
       </c>
     </row>
     <row r="23">
@@ -1289,34 +1289,34 @@
         <v>32</v>
       </c>
       <c r="B23" t="n">
-        <v>0.258811460815176</v>
+        <v>0.779087669463511</v>
       </c>
       <c r="C23" t="n">
-        <v>0.00127494842536133</v>
+        <v>0.000483481554180896</v>
       </c>
       <c r="D23" t="n">
-        <v>0.00108983241732802</v>
+        <v>0.000906672786144118</v>
       </c>
       <c r="E23" t="n">
-        <v>0.470382042956774</v>
+        <v>0.0728916834316197</v>
       </c>
       <c r="F23" t="n">
-        <v>0.26844171538536</v>
+        <v>0.146630492764544</v>
       </c>
       <c r="G23" t="n">
-        <v>0.232162108392034</v>
+        <v>0.753526692966023</v>
       </c>
       <c r="H23" t="n">
-        <v>0.721132132150448</v>
+        <v>0.835176242284717</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>57</v>
+        <v>545</v>
       </c>
       <c r="K23" t="n">
-        <v>0.91813806469836</v>
+        <v>0.929194705642883</v>
       </c>
     </row>
     <row r="24">
@@ -1324,34 +1324,34 @@
         <v>33</v>
       </c>
       <c r="B24" t="n">
-        <v>0.31345588510207</v>
+        <v>0.699493878395775</v>
       </c>
       <c r="C24" t="n">
-        <v>0.00125094673998998</v>
+        <v>0.000351646070069813</v>
       </c>
       <c r="D24" t="n">
-        <v>0.00294005059896671</v>
+        <v>0.00145379099986974</v>
       </c>
       <c r="E24" t="n">
-        <v>0.397261509422266</v>
+        <v>0.148551387502892</v>
       </c>
       <c r="F24" t="n">
-        <v>0.285091608136707</v>
+        <v>0.150149297031393</v>
       </c>
       <c r="G24" t="n">
-        <v>0.288913932242934</v>
+        <v>0.669362556391039</v>
       </c>
       <c r="H24" t="n">
-        <v>0.704069847962502</v>
+        <v>0.830439706461214</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="K24" t="n">
-        <v>0.896414538751819</v>
+        <v>0.923924962818007</v>
       </c>
     </row>
     <row r="25">
@@ -1359,34 +1359,34 @@
         <v>34</v>
       </c>
       <c r="B25" t="n">
-        <v>0.833856485596702</v>
+        <v>0.384940586560403</v>
       </c>
       <c r="C25" t="n">
-        <v>0.00122269494467146</v>
+        <v>0.000189267098459511</v>
       </c>
       <c r="D25" t="n">
-        <v>0.000511637236492436</v>
+        <v>0.00994199396717096</v>
       </c>
       <c r="E25" t="n">
-        <v>0.040851080981374</v>
+        <v>0.275044797183194</v>
       </c>
       <c r="F25" t="n">
-        <v>0.123558101240761</v>
+        <v>0.329883355190772</v>
       </c>
       <c r="G25" t="n">
-        <v>0.812929098030673</v>
+        <v>0.35137557752323</v>
       </c>
       <c r="H25" t="n">
-        <v>0.859943634377769</v>
+        <v>0.644641487888799</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>253</v>
+        <v>70</v>
       </c>
       <c r="K25" t="n">
-        <v>1.09487145145344</v>
+        <v>0.717210843959592</v>
       </c>
     </row>
     <row r="26">
@@ -1394,34 +1394,34 @@
         <v>35</v>
       </c>
       <c r="B26" t="n">
-        <v>0.292141494295489</v>
+        <v>0.869664459438648</v>
       </c>
       <c r="C26" t="n">
-        <v>0.000710518727112508</v>
+        <v>0.000173270272007812</v>
       </c>
       <c r="D26" t="n">
-        <v>0.00122843160231393</v>
+        <v>0.000143747045541547</v>
       </c>
       <c r="E26" t="n">
-        <v>0.211139299930991</v>
+        <v>0.051286862621286</v>
       </c>
       <c r="F26" t="n">
-        <v>0.494780255444094</v>
+        <v>0.0787316606225166</v>
       </c>
       <c r="G26" t="n">
-        <v>0.264836961605966</v>
+        <v>0.851396392407906</v>
       </c>
       <c r="H26" t="n">
-        <v>0.485727791226013</v>
+        <v>0.910022954770122</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>41</v>
+        <v>332</v>
       </c>
       <c r="K26" t="n">
-        <v>0.618423662355153</v>
+        <v>1.01246715216981</v>
       </c>
     </row>
     <row r="27">
@@ -1429,34 +1429,34 @@
         <v>36</v>
       </c>
       <c r="B27" t="n">
-        <v>0.479471826670534</v>
+        <v>0.829043991936807</v>
       </c>
       <c r="C27" t="n">
-        <v>0.000700112912587653</v>
+        <v>0.00014705795757248</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>0.000244300806196583</v>
       </c>
       <c r="E27" t="n">
-        <v>0.202187522763377</v>
+        <v>0.0744352258123028</v>
       </c>
       <c r="F27" t="n">
-        <v>0.317640537653501</v>
+        <v>0.096129423487121</v>
       </c>
       <c r="G27" t="n">
-        <v>0.441985049408994</v>
+        <v>0.806551648993465</v>
       </c>
       <c r="H27" t="n">
-        <v>0.658966695711959</v>
+        <v>0.890799615987538</v>
       </c>
       <c r="I27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>219</v>
+        <v>158</v>
       </c>
       <c r="K27" t="n">
-        <v>0.838989666009538</v>
+        <v>0.991079780598161</v>
       </c>
     </row>
     <row r="28">
@@ -1464,34 +1464,34 @@
         <v>37</v>
       </c>
       <c r="B28" t="n">
-        <v>0.770305291795748</v>
+        <v>0.611099667737005</v>
       </c>
       <c r="C28" t="n">
-        <v>0.000699601495398601</v>
+        <v>0.0000990596724665182</v>
       </c>
       <c r="D28" t="n">
-        <v>0.000551659445963006</v>
+        <v>0.00276874204579033</v>
       </c>
       <c r="E28" t="n">
-        <v>0.0685159234692277</v>
+        <v>0.107436901589122</v>
       </c>
       <c r="F28" t="n">
-        <v>0.159927523793663</v>
+        <v>0.278595628955616</v>
       </c>
       <c r="G28" t="n">
-        <v>0.74417507142813</v>
+        <v>0.574026769078498</v>
       </c>
       <c r="H28" t="n">
-        <v>0.821841665471498</v>
+        <v>0.694204571815361</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>144</v>
+        <v>317</v>
       </c>
       <c r="K28" t="n">
-        <v>1.04636041383198</v>
+        <v>0.772353402916861</v>
       </c>
     </row>
     <row r="29">
@@ -1499,34 +1499,34 @@
         <v>38</v>
       </c>
       <c r="B29" t="n">
-        <v>0.786757040331259</v>
+        <v>0.852658152686062</v>
       </c>
       <c r="C29" t="n">
-        <v>0.000516074574489342</v>
+        <v>0.0000936311086709379</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0.110537895675189</v>
+        <v>0.0459779120905491</v>
       </c>
       <c r="F29" t="n">
-        <v>0.102188989419063</v>
+        <v>0.101270304114718</v>
       </c>
       <c r="G29" t="n">
-        <v>0.760263700477831</v>
+        <v>0.832402338635967</v>
       </c>
       <c r="H29" t="n">
-        <v>0.884707089051571</v>
+        <v>0.884730329743403</v>
       </c>
       <c r="I29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>64</v>
+        <v>173</v>
       </c>
       <c r="K29" t="n">
-        <v>1.12640002899949</v>
+        <v>0.984327255371085</v>
       </c>
     </row>
     <row r="30">
@@ -1534,34 +1534,34 @@
         <v>39</v>
       </c>
       <c r="B30" t="n">
-        <v>0.778294229221084</v>
+        <v>0.853820131363927</v>
       </c>
       <c r="C30" t="n">
-        <v>0.000476399984893508</v>
+        <v>0.0000882989596068233</v>
       </c>
       <c r="D30" t="n">
-        <v>0.000930750785699049</v>
+        <v>0.000435078954218966</v>
       </c>
       <c r="E30" t="n">
-        <v>0.073250439608034</v>
+        <v>0.0230515316445126</v>
       </c>
       <c r="F30" t="n">
-        <v>0.147048180400289</v>
+        <v>0.122604959077735</v>
       </c>
       <c r="G30" t="n">
-        <v>0.75211240025097</v>
+        <v>0.834170248557512</v>
       </c>
       <c r="H30" t="n">
-        <v>0.835574059777528</v>
+        <v>0.860236075416732</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>547</v>
+        <v>303</v>
       </c>
       <c r="K30" t="n">
-        <v>1.0638443579938</v>
+        <v>0.957075604418048</v>
       </c>
     </row>
     <row r="31">
@@ -1569,34 +1569,34 @@
         <v>40</v>
       </c>
       <c r="B31" t="n">
-        <v>0.78860942285889</v>
+        <v>0.79212372576946</v>
       </c>
       <c r="C31" t="n">
-        <v>0.000428476229139344</v>
+        <v>0.0000822014437182312</v>
       </c>
       <c r="D31" t="n">
-        <v>0.000095545305533031</v>
+        <v>0.000116793317249651</v>
       </c>
       <c r="E31" t="n">
-        <v>0.0792047269765149</v>
+        <v>0.0738112488924916</v>
       </c>
       <c r="F31" t="n">
-        <v>0.131661828629922</v>
+        <v>0.133866030577081</v>
       </c>
       <c r="G31" t="n">
-        <v>0.762292087596026</v>
+        <v>0.765618273692792</v>
       </c>
       <c r="H31" t="n">
-        <v>0.851659376142895</v>
+        <v>0.849066106850373</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>252</v>
+        <v>279</v>
       </c>
       <c r="K31" t="n">
-        <v>1.0843240184878</v>
+        <v>0.944648196730222</v>
       </c>
     </row>
     <row r="32">
@@ -1604,34 +1604,34 @@
         <v>41</v>
       </c>
       <c r="B32" t="n">
-        <v>0.438107968540244</v>
+        <v>0.819596310240814</v>
       </c>
       <c r="C32" t="n">
-        <v>0.000212916895709223</v>
+        <v>0.000073952809541818</v>
       </c>
       <c r="D32" t="n">
-        <v>0.000365696240061281</v>
+        <v>0.0000828484472922628</v>
       </c>
       <c r="E32" t="n">
-        <v>0.274366150227685</v>
+        <v>0.037294340437146</v>
       </c>
       <c r="F32" t="n">
-        <v>0.286947268096301</v>
+        <v>0.142952548065206</v>
       </c>
       <c r="G32" t="n">
-        <v>0.401882915243062</v>
+        <v>0.795946365860109</v>
       </c>
       <c r="H32" t="n">
-        <v>0.694913843913406</v>
+        <v>0.838018438173345</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>231</v>
+        <v>168</v>
       </c>
       <c r="K32" t="n">
-        <v>0.884757207919897</v>
+        <v>0.932356856621805</v>
       </c>
     </row>
     <row r="33">
@@ -1639,34 +1639,34 @@
         <v>42</v>
       </c>
       <c r="B33" t="n">
-        <v>0.553081616157485</v>
+        <v>0.462378464296039</v>
       </c>
       <c r="C33" t="n">
-        <v>0.00019558957001533</v>
+        <v>0.0000696857366886053</v>
       </c>
       <c r="D33" t="n">
-        <v>0.00134812079740946</v>
+        <v>0.00424086345130496</v>
       </c>
       <c r="E33" t="n">
-        <v>0.120423764873351</v>
+        <v>0.191824711754371</v>
       </c>
       <c r="F33" t="n">
-        <v>0.324950908601739</v>
+        <v>0.341486274761597</v>
       </c>
       <c r="G33" t="n">
-        <v>0.515229420773436</v>
+        <v>0.424821664782073</v>
       </c>
       <c r="H33" t="n">
-        <v>0.647439947421581</v>
+        <v>0.633342576656909</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>246</v>
+        <v>116</v>
       </c>
       <c r="K33" t="n">
-        <v>0.824313927825423</v>
+        <v>0.704639978117575</v>
       </c>
     </row>
     <row r="34">
@@ -1674,34 +1674,34 @@
         <v>43</v>
       </c>
       <c r="B34" t="n">
-        <v>0.84857580056919</v>
+        <v>0.727049200378807</v>
       </c>
       <c r="C34" t="n">
-        <v>0.000186710620054558</v>
+        <v>0.0000663548957786682</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0000531366254928795</v>
+        <v>0.000198432208487203</v>
       </c>
       <c r="E34" t="n">
-        <v>0.0480067758062193</v>
+        <v>0.0404461320066015</v>
       </c>
       <c r="F34" t="n">
-        <v>0.103177576379044</v>
+        <v>0.232239880510326</v>
       </c>
       <c r="G34" t="n">
-        <v>0.827896348628153</v>
+        <v>0.695475937642484</v>
       </c>
       <c r="H34" t="n">
-        <v>0.882571443776498</v>
+        <v>0.740745717671199</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>172</v>
+        <v>359</v>
       </c>
       <c r="K34" t="n">
-        <v>1.12368094724967</v>
+        <v>0.82413383456024</v>
       </c>
     </row>
     <row r="35">
@@ -1709,34 +1709,34 @@
         <v>44</v>
       </c>
       <c r="B35" t="n">
-        <v>0.46752854242753</v>
+        <v>0.543954386495348</v>
       </c>
       <c r="C35" t="n">
-        <v>0.000185314055370985</v>
+        <v>0.0000254225807014896</v>
       </c>
       <c r="D35" t="n">
-        <v>0.00689933517290841</v>
+        <v>0.00189840916344437</v>
       </c>
       <c r="E35" t="n">
-        <v>0.185100791668094</v>
+        <v>0.133970164423244</v>
       </c>
       <c r="F35" t="n">
-        <v>0.340286016676096</v>
+        <v>0.320151617337262</v>
       </c>
       <c r="G35" t="n">
-        <v>0.431369506214614</v>
+        <v>0.505781882097845</v>
       </c>
       <c r="H35" t="n">
-        <v>0.636605051819108</v>
+        <v>0.651875254425072</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>40</v>
+        <v>218</v>
       </c>
       <c r="K35" t="n">
-        <v>0.810519049416666</v>
+        <v>0.725258938753302</v>
       </c>
     </row>
     <row r="36">
@@ -1744,34 +1744,34 @@
         <v>45</v>
       </c>
       <c r="B36" t="n">
-        <v>0.799240316943855</v>
+        <v>0.559041337624975</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0000882616889370668</v>
+        <v>0.00000000994609786744074</v>
       </c>
       <c r="D36" t="n">
-        <v>0.000054694024854275</v>
+        <v>0.00805897613548158</v>
       </c>
       <c r="E36" t="n">
-        <v>0.0632112291544796</v>
+        <v>0.168751993990525</v>
       </c>
       <c r="F36" t="n">
-        <v>0.137405498187874</v>
+        <v>0.26414768230292</v>
       </c>
       <c r="G36" t="n">
-        <v>0.77352838929789</v>
+        <v>0.518363199637967</v>
       </c>
       <c r="H36" t="n">
-        <v>0.844898886805757</v>
+        <v>0.707861936812422</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>174</v>
+        <v>5</v>
       </c>
       <c r="K36" t="n">
-        <v>1.07571663251832</v>
+        <v>0.787548221214836</v>
       </c>
     </row>
     <row r="37">
@@ -1779,34 +1779,34 @@
         <v>46</v>
       </c>
       <c r="B37" t="n">
-        <v>0.854755685063368</v>
+        <v>0.488360863414684</v>
       </c>
       <c r="C37" t="n">
-        <v>0.0000647134559918627</v>
+        <v>0.0000000000873316446585076</v>
       </c>
       <c r="D37" t="n">
-        <v>0.000413442934278329</v>
+        <v>0.00113074116778186</v>
       </c>
       <c r="E37" t="n">
-        <v>0.0342239662477463</v>
+        <v>0.198075878372226</v>
       </c>
       <c r="F37" t="n">
-        <v>0.110542192298616</v>
+        <v>0.312432516957977</v>
       </c>
       <c r="G37" t="n">
-        <v>0.83426088919909</v>
+        <v>0.453047317102296</v>
       </c>
       <c r="H37" t="n">
-        <v>0.873533096513757</v>
+        <v>0.66569505453095</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="K37" t="n">
-        <v>1.11217341583634</v>
+        <v>0.740634478000319</v>
       </c>
     </row>
     <row r="38">
@@ -1814,34 +1814,34 @@
         <v>47</v>
       </c>
       <c r="B38" t="n">
-        <v>0.539919064188845</v>
+        <v>0.463724500587331</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0000369604641612234</v>
+        <v>0.0000000000422646606044627</v>
       </c>
       <c r="D38" t="n">
-        <v>0.00225040282080543</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0.17520524933897</v>
+        <v>0.323676370002636</v>
       </c>
       <c r="F38" t="n">
-        <v>0.282588323187218</v>
+        <v>0.212599129367768</v>
       </c>
       <c r="G38" t="n">
-        <v>0.50183027785023</v>
+        <v>0.427684892741287</v>
       </c>
       <c r="H38" t="n">
-        <v>0.694038603899916</v>
+        <v>0.773517559608462</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>227</v>
+        <v>23</v>
       </c>
       <c r="K38" t="n">
-        <v>0.883642861274801</v>
+        <v>0.86059490766137</v>
       </c>
     </row>
     <row r="39">
@@ -1849,34 +1849,34 @@
         <v>48</v>
       </c>
       <c r="B39" t="n">
-        <v>0.872293712771632</v>
+        <v>0.704771933267069</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0000355278326016556</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>0.000278020806876092</v>
+        <v>0.000378740333701111</v>
       </c>
       <c r="E39" t="n">
-        <v>0.0503446967671967</v>
+        <v>0.0713782382363947</v>
       </c>
       <c r="F39" t="n">
-        <v>0.0770480418216934</v>
+        <v>0.223471088162835</v>
       </c>
       <c r="G39" t="n">
-        <v>0.854234962140954</v>
+        <v>0.672748599514445</v>
       </c>
       <c r="H39" t="n">
-        <v>0.912054205418475</v>
+        <v>0.752183683947847</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>386</v>
+        <v>485</v>
       </c>
       <c r="K39" t="n">
-        <v>1.16121809822255</v>
+        <v>0.83685940931858</v>
       </c>
     </row>
     <row r="40">
@@ -1884,34 +1884,34 @@
         <v>49</v>
       </c>
       <c r="B40" t="n">
-        <v>0.800322233800932</v>
+        <v>0.63384238538854</v>
       </c>
       <c r="C40" t="n">
-        <v>0.00000970048518883339</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0.000142867041100314</v>
+        <v>0.000247088184992886</v>
       </c>
       <c r="E40" t="n">
-        <v>0.0330211825346256</v>
+        <v>0.0714734102833318</v>
       </c>
       <c r="F40" t="n">
-        <v>0.166504016138153</v>
+        <v>0.294437116143136</v>
       </c>
       <c r="G40" t="n">
-        <v>0.774599619617879</v>
+        <v>0.597605961500629</v>
       </c>
       <c r="H40" t="n">
-        <v>0.812038077151931</v>
+        <v>0.67610273501437</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>336</v>
+        <v>305</v>
       </c>
       <c r="K40" t="n">
-        <v>1.0338785853216</v>
+        <v>0.752213784395291</v>
       </c>
     </row>
     <row r="41">
@@ -1919,34 +1919,34 @@
         <v>50</v>
       </c>
       <c r="B41" t="n">
-        <v>0.65750462285922</v>
+        <v>0.432888940415213</v>
       </c>
       <c r="C41" t="n">
-        <v>0.000000000151972866990008</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0.00571836740484541</v>
+        <v>0.0000788533276278832</v>
       </c>
       <c r="E41" t="n">
-        <v>0.0856518706904295</v>
+        <v>0.293499512592865</v>
       </c>
       <c r="F41" t="n">
-        <v>0.251125138893532</v>
+        <v>0.273532693664294</v>
       </c>
       <c r="G41" t="n">
-        <v>0.623178025723273</v>
+        <v>0.396579408496514</v>
       </c>
       <c r="H41" t="n">
-        <v>0.72382899569085</v>
+        <v>0.709425174778841</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>47</v>
+        <v>257</v>
       </c>
       <c r="K41" t="n">
-        <v>0.921571683811067</v>
+        <v>0.789287437883742</v>
       </c>
     </row>
     <row r="42">
@@ -1954,34 +1954,34 @@
         <v>51</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0849430306025699</v>
+        <v>0.851508224852135</v>
       </c>
       <c r="C42" t="n">
-        <v>0.000000000144910552777462</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>0.000600101718541758</v>
+        <v>0.000184124612198818</v>
       </c>
       <c r="E42" t="n">
-        <v>0.470531931179452</v>
+        <v>0.0237853851351185</v>
       </c>
       <c r="F42" t="n">
-        <v>0.443924936354526</v>
+        <v>0.124522265400548</v>
       </c>
       <c r="G42" t="n">
-        <v>0.0879472924632013</v>
+        <v>0.831282929159485</v>
       </c>
       <c r="H42" t="n">
-        <v>0.556375564187783</v>
+        <v>0.858423713523098</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>11</v>
+        <v>214</v>
       </c>
       <c r="K42" t="n">
-        <v>0.70837168526316</v>
+        <v>0.955059219143884</v>
       </c>
     </row>
     <row r="43">
@@ -1989,34 +1989,34 @@
         <v>52</v>
       </c>
       <c r="B43" t="n">
-        <v>0.641253216239584</v>
+        <v>0.711071865660795</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0.000277660675676845</v>
+        <v>0.000574194518321415</v>
       </c>
       <c r="E43" t="n">
-        <v>0.103735523831552</v>
+        <v>0.102500683001484</v>
       </c>
       <c r="F43" t="n">
-        <v>0.254733599253187</v>
+        <v>0.185853256819399</v>
       </c>
       <c r="G43" t="n">
-        <v>0.606045304497375</v>
+        <v>0.679623921760039</v>
       </c>
       <c r="H43" t="n">
-        <v>0.720568291539998</v>
+        <v>0.793682880750468</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>301</v>
+        <v>181</v>
       </c>
       <c r="K43" t="n">
-        <v>0.917420188592446</v>
+        <v>0.883030303562338</v>
       </c>
     </row>
     <row r="44">
@@ -2024,34 +2024,34 @@
         <v>53</v>
       </c>
       <c r="B44" t="n">
-        <v>0.679947442782898</v>
+        <v>0.339201154884198</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0.000371697844265106</v>
+        <v>0.00398511694644126</v>
       </c>
       <c r="E44" t="n">
-        <v>0.0660205327692917</v>
+        <v>0.401231560364958</v>
       </c>
       <c r="F44" t="n">
-        <v>0.253660326603545</v>
+        <v>0.255582167804402</v>
       </c>
       <c r="G44" t="n">
-        <v>0.645611954520187</v>
+        <v>0.306560150502488</v>
       </c>
       <c r="H44" t="n">
-        <v>0.719106983030284</v>
+        <v>0.728405853907662</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>249</v>
+        <v>114</v>
       </c>
       <c r="K44" t="n">
-        <v>0.915559665524316</v>
+        <v>0.810404832827544</v>
       </c>
     </row>
     <row r="45">
@@ -2059,34 +2059,34 @@
         <v>54</v>
       </c>
       <c r="B45" t="n">
-        <v>0.543477840820629</v>
+        <v>0.839043546638938</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0.00330746620883347</v>
+        <v>0.00147203319189678</v>
       </c>
       <c r="E45" t="n">
-        <v>0.219790788691677</v>
+        <v>0.0474003405738775</v>
       </c>
       <c r="F45" t="n">
-        <v>0.233423904278861</v>
+        <v>0.112084079595288</v>
       </c>
       <c r="G45" t="n">
-        <v>0.506242975709405</v>
+        <v>0.816597633024958</v>
       </c>
       <c r="H45" t="n">
-        <v>0.748090103737753</v>
+        <v>0.869998642392218</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>156</v>
+        <v>8</v>
       </c>
       <c r="K45" t="n">
-        <v>0.952460678762931</v>
+        <v>0.967937174812207</v>
       </c>
     </row>
     <row r="46">
@@ -2094,34 +2094,34 @@
         <v>55</v>
       </c>
       <c r="B46" t="n">
-        <v>0.212554465702511</v>
+        <v>0.122144766722706</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0.00634416950160653</v>
+        <v>0.000173493343173919</v>
       </c>
       <c r="E46" t="n">
-        <v>0.400095867811113</v>
+        <v>0.426136468757884</v>
       </c>
       <c r="F46" t="n">
-        <v>0.381005496984769</v>
+        <v>0.451545271176235</v>
       </c>
       <c r="G46" t="n">
-        <v>0.192516282951403</v>
+        <v>0.121681788685636</v>
       </c>
       <c r="H46" t="n">
-        <v>0.60904766338329</v>
+        <v>0.544508452935171</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="K46" t="n">
-        <v>0.775433263943271</v>
+        <v>0.605805512691625</v>
       </c>
     </row>
     <row r="47">
@@ -2129,34 +2129,34 @@
         <v>56</v>
       </c>
       <c r="B47" t="n">
-        <v>0.717675809553098</v>
+        <v>0.298781107055743</v>
       </c>
       <c r="C47" t="n">
         <v>0</v>
       </c>
       <c r="D47" t="n">
-        <v>0.000381218845166238</v>
+        <v>0</v>
       </c>
       <c r="E47" t="n">
-        <v>0.128203492388182</v>
+        <v>0.549382591002005</v>
       </c>
       <c r="F47" t="n">
-        <v>0.153739479213554</v>
+        <v>0.151836301942251</v>
       </c>
       <c r="G47" t="n">
-        <v>0.685436792166547</v>
+        <v>0.27464583930789</v>
       </c>
       <c r="H47" t="n">
-        <v>0.826178029847927</v>
+        <v>0.841575576524553</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
       <c r="J47" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K47" t="n">
-        <v>1.05188142866254</v>
+        <v>0.936314433425163</v>
       </c>
     </row>
   </sheetData>

--- a/tables/S5_SWIP-TMT_Module_GOF.xlsx
+++ b/tables/S5_SWIP-TMT_Module_GOF.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
   <si>
     <t xml:space="preserve">Module</t>
   </si>
@@ -47,142 +47,136 @@
     <t xml:space="preserve">Quality</t>
   </si>
   <si>
+    <t xml:space="preserve">M23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M14</t>
+  </si>
+  <si>
     <t xml:space="preserve">M26</t>
   </si>
   <si>
-    <t xml:space="preserve">M33</t>
+    <t xml:space="preserve">M43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M35</t>
   </si>
   <si>
     <t xml:space="preserve">M13</t>
   </si>
   <si>
+    <t xml:space="preserve">M3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M27</t>
+  </si>
+  <si>
     <t xml:space="preserve">M28</t>
   </si>
   <si>
-    <t xml:space="preserve">M34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M37</t>
+    <t xml:space="preserve">M38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M39</t>
   </si>
   <si>
     <t xml:space="preserve">M41</t>
   </si>
   <si>
-    <t xml:space="preserve">M25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M39</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M14</t>
+    <t xml:space="preserve">M42</t>
   </si>
   <si>
     <t xml:space="preserve">M47</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M38</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M43</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M44</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M46</t>
   </si>
 </sst>
 </file>
@@ -554,34 +548,34 @@
         <v>11</v>
       </c>
       <c r="B2" t="n">
-        <v>0.117089762788617</v>
+        <v>0.0190829280576653</v>
       </c>
       <c r="C2" t="n">
-        <v>0.112504006583914</v>
+        <v>0.0882509303071947</v>
       </c>
       <c r="D2" t="n">
-        <v>0.00142862602388097</v>
+        <v>0.0110777353122856</v>
       </c>
       <c r="E2" t="n">
-        <v>0.206818319674744</v>
+        <v>0.223792818713711</v>
       </c>
       <c r="F2" t="n">
-        <v>0.562159284928845</v>
+        <v>0.657795587609143</v>
       </c>
       <c r="G2" t="n">
-        <v>0.17047232590229</v>
+        <v>0.065090242903065</v>
       </c>
       <c r="H2" t="n">
-        <v>0.3947821048651</v>
+        <v>0.302774993188959</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>71</v>
+        <v>134</v>
       </c>
       <c r="K2" t="n">
-        <v>0.439223990279827</v>
+        <v>0.357701993208696</v>
       </c>
     </row>
     <row r="3">
@@ -589,34 +583,34 @@
         <v>12</v>
       </c>
       <c r="B3" t="n">
-        <v>0.195520279947373</v>
+        <v>0.18708523393095</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0696056241276767</v>
+        <v>0.0597263356126565</v>
       </c>
       <c r="D3" t="n">
-        <v>0.00447948500297196</v>
+        <v>0.00317767121067886</v>
       </c>
       <c r="E3" t="n">
-        <v>0.202281335348951</v>
+        <v>0.260797541010317</v>
       </c>
       <c r="F3" t="n">
-        <v>0.528113275573028</v>
+        <v>0.489213218235397</v>
       </c>
       <c r="G3" t="n">
-        <v>0.217293348396496</v>
+        <v>0.202731331550366</v>
       </c>
       <c r="H3" t="n">
-        <v>0.43704641814288</v>
+        <v>0.482043894740614</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="K3" t="n">
-        <v>0.486246132609824</v>
+        <v>0.569492414636734</v>
       </c>
     </row>
     <row r="4">
@@ -624,34 +618,34 @@
         <v>13</v>
       </c>
       <c r="B4" t="n">
-        <v>0.556212408928478</v>
+        <v>0.314714580216519</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0298782658342788</v>
+        <v>0.0320990882317144</v>
       </c>
       <c r="D4" t="n">
-        <v>0.00050491052044955</v>
+        <v>0.00228896884037688</v>
       </c>
       <c r="E4" t="n">
-        <v>0.122729673775406</v>
+        <v>0.258916017277529</v>
       </c>
       <c r="F4" t="n">
-        <v>0.290674740941387</v>
+        <v>0.391981345433861</v>
       </c>
       <c r="G4" t="n">
-        <v>0.543790852974784</v>
+        <v>0.306882516583472</v>
       </c>
       <c r="H4" t="n">
-        <v>0.679745552756381</v>
+        <v>0.581059948049969</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>231</v>
+        <v>72</v>
       </c>
       <c r="K4" t="n">
-        <v>0.756266685792773</v>
+        <v>0.686471162634956</v>
       </c>
     </row>
     <row r="5">
@@ -659,34 +653,34 @@
         <v>14</v>
       </c>
       <c r="B5" t="n">
-        <v>0.30264001587913</v>
+        <v>0.561330190740672</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0295745783154117</v>
+        <v>0.0181754635233738</v>
       </c>
       <c r="D5" t="n">
-        <v>0.00120973091705281</v>
+        <v>0.00281822553006535</v>
       </c>
       <c r="E5" t="n">
-        <v>0.277232716190938</v>
+        <v>0.162167254046967</v>
       </c>
       <c r="F5" t="n">
-        <v>0.389342958697468</v>
+        <v>0.255508866158922</v>
       </c>
       <c r="G5" t="n">
-        <v>0.293668218240398</v>
+        <v>0.539460904855304</v>
       </c>
       <c r="H5" t="n">
-        <v>0.58649204270463</v>
+        <v>0.718798786210484</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>70</v>
+        <v>146</v>
       </c>
       <c r="K5" t="n">
-        <v>0.652515329569252</v>
+        <v>0.849197471149866</v>
       </c>
     </row>
     <row r="6">
@@ -694,34 +688,34 @@
         <v>15</v>
       </c>
       <c r="B6" t="n">
-        <v>0.480148187606785</v>
+        <v>0.609581037606463</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0270961651735561</v>
+        <v>0.0154177436567236</v>
       </c>
       <c r="D6" t="n">
-        <v>0.00791654744983602</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0.111142063858533</v>
+        <v>0.127871537511027</v>
       </c>
       <c r="F6" t="n">
-        <v>0.37369703591129</v>
+        <v>0.247129681225786</v>
       </c>
       <c r="G6" t="n">
-        <v>0.46643157315787</v>
+        <v>0.587537350310445</v>
       </c>
       <c r="H6" t="n">
-        <v>0.58740512666838</v>
+        <v>0.728788458101915</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>48</v>
+        <v>116</v>
       </c>
       <c r="K6" t="n">
-        <v>0.653531202317983</v>
+        <v>0.860999388836099</v>
       </c>
     </row>
     <row r="7">
@@ -729,34 +723,34 @@
         <v>16</v>
       </c>
       <c r="B7" t="n">
-        <v>0.543914577095293</v>
+        <v>0.218819662787707</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0204590897126735</v>
+        <v>0.00863175100076464</v>
       </c>
       <c r="D7" t="n">
-        <v>0.00320263580282774</v>
+        <v>0.00338958570736817</v>
       </c>
       <c r="E7" t="n">
-        <v>0.163365875585168</v>
+        <v>0.484907811746502</v>
       </c>
       <c r="F7" t="n">
-        <v>0.269057821804039</v>
+        <v>0.284251188757658</v>
       </c>
       <c r="G7" t="n">
-        <v>0.523174406244546</v>
+        <v>0.203088991004108</v>
       </c>
       <c r="H7" t="n">
-        <v>0.70405202026012</v>
+        <v>0.706238548414626</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>127</v>
+        <v>34</v>
       </c>
       <c r="K7" t="n">
-        <v>0.783309410159032</v>
+        <v>0.834358656202062</v>
       </c>
     </row>
     <row r="8">
@@ -764,34 +758,34 @@
         <v>17</v>
       </c>
       <c r="B8" t="n">
-        <v>0.161049678244145</v>
+        <v>0.0571533953163385</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0186236925005829</v>
+        <v>0.00692440837411947</v>
       </c>
       <c r="D8" t="n">
-        <v>0.000145030444802936</v>
+        <v>0.0230618099897959</v>
       </c>
       <c r="E8" t="n">
-        <v>0.537410807089467</v>
+        <v>0.539677018749318</v>
       </c>
       <c r="F8" t="n">
-        <v>0.282770791721001</v>
+        <v>0.373183367570428</v>
       </c>
       <c r="G8" t="n">
-        <v>0.157348208449542</v>
+        <v>0.0743326884006949</v>
       </c>
       <c r="H8" t="n">
-        <v>0.710408795068339</v>
+        <v>0.589949552522904</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="K8" t="n">
-        <v>0.790381787458228</v>
+        <v>0.696973447534096</v>
       </c>
     </row>
     <row r="9">
@@ -799,34 +793,34 @@
         <v>18</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0667722040834674</v>
+        <v>0.767906901732762</v>
       </c>
       <c r="C9" t="n">
-        <v>0.00558034635319756</v>
+        <v>0.00538058934038733</v>
       </c>
       <c r="D9" t="n">
-        <v>0.00930578691764429</v>
+        <v>0.00161217500282304</v>
       </c>
       <c r="E9" t="n">
-        <v>0.493202640638415</v>
+        <v>0.0506484396650147</v>
       </c>
       <c r="F9" t="n">
-        <v>0.425139022007276</v>
+        <v>0.174451894259013</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0772560826898578</v>
+        <v>0.747033385379151</v>
       </c>
       <c r="H9" t="n">
-        <v>0.555373426994577</v>
+        <v>0.803662729784677</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>14</v>
+        <v>241</v>
       </c>
       <c r="K9" t="n">
-        <v>0.617893591664429</v>
+        <v>0.949456747678342</v>
       </c>
     </row>
     <row r="10">
@@ -834,34 +828,34 @@
         <v>19</v>
       </c>
       <c r="B10" t="n">
-        <v>0.467854268903031</v>
+        <v>0.270016217504006</v>
       </c>
       <c r="C10" t="n">
-        <v>0.00511970651344803</v>
+        <v>0.00461484079512496</v>
       </c>
       <c r="D10" t="n">
-        <v>0.000827631976628323</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0.273544814838147</v>
+        <v>0.552907080832095</v>
       </c>
       <c r="F10" t="n">
-        <v>0.252653577768746</v>
+        <v>0.172461860868774</v>
       </c>
       <c r="G10" t="n">
-        <v>0.434432888171143</v>
+        <v>0.24746488013</v>
       </c>
       <c r="H10" t="n">
-        <v>0.72770927985092</v>
+        <v>0.823232689174898</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>78</v>
+        <v>41</v>
       </c>
       <c r="K10" t="n">
-        <v>0.809629843199197</v>
+        <v>0.972576931439774</v>
       </c>
     </row>
     <row r="11">
@@ -869,34 +863,34 @@
         <v>20</v>
       </c>
       <c r="B11" t="n">
-        <v>0.217522944717934</v>
+        <v>0.312818800808774</v>
       </c>
       <c r="C11" t="n">
-        <v>0.00486542186728067</v>
+        <v>0.00435696317434712</v>
       </c>
       <c r="D11" t="n">
-        <v>0.00269954726929926</v>
+        <v>0.00533117285061035</v>
       </c>
       <c r="E11" t="n">
-        <v>0.100763726770582</v>
+        <v>0.155389164286953</v>
       </c>
       <c r="F11" t="n">
-        <v>0.674148359374904</v>
+        <v>0.522103898879315</v>
       </c>
       <c r="G11" t="n">
-        <v>0.200313079784921</v>
+        <v>0.285078056706885</v>
       </c>
       <c r="H11" t="n">
-        <v>0.303069845535876</v>
+        <v>0.447954688416825</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="K11" t="n">
-        <v>0.337187388306885</v>
+        <v>0.529219019134378</v>
       </c>
     </row>
     <row r="12">
@@ -904,34 +898,34 @@
         <v>21</v>
       </c>
       <c r="B12" t="n">
-        <v>0.766561010091852</v>
+        <v>0.628450759218874</v>
       </c>
       <c r="C12" t="n">
-        <v>0.00464994930015444</v>
+        <v>0.00290069741715891</v>
       </c>
       <c r="D12" t="n">
-        <v>0.00152451891381977</v>
+        <v>0.00046262433918443</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0478703749295109</v>
+        <v>0.0939240758540609</v>
       </c>
       <c r="F12" t="n">
-        <v>0.179394146764663</v>
+        <v>0.274261843170722</v>
       </c>
       <c r="G12" t="n">
-        <v>0.744731168409566</v>
+        <v>0.594685014763769</v>
       </c>
       <c r="H12" t="n">
-        <v>0.79835573913784</v>
+        <v>0.698224149526847</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>269</v>
+        <v>135</v>
       </c>
       <c r="K12" t="n">
-        <v>0.888229200578238</v>
+        <v>0.824890349634423</v>
       </c>
     </row>
     <row r="13">
@@ -939,34 +933,34 @@
         <v>22</v>
       </c>
       <c r="B13" t="n">
-        <v>0.484456520399459</v>
+        <v>0.0672270517978348</v>
       </c>
       <c r="C13" t="n">
-        <v>0.00398608733642942</v>
+        <v>0.00289598549207456</v>
       </c>
       <c r="D13" t="n">
-        <v>0.00123634607776914</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0.22345683439817</v>
+        <v>0.786426382520151</v>
       </c>
       <c r="F13" t="n">
-        <v>0.286864211788172</v>
+        <v>0.14345058018994</v>
       </c>
       <c r="G13" t="n">
-        <v>0.450298164269075</v>
+        <v>0.0689533262603746</v>
       </c>
       <c r="H13" t="n">
-        <v>0.69163389369714</v>
+        <v>0.85795560727966</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>115</v>
+        <v>7</v>
       </c>
       <c r="K13" t="n">
-        <v>0.769493335333007</v>
+        <v>1.01359900160904</v>
       </c>
     </row>
     <row r="14">
@@ -974,34 +968,34 @@
         <v>23</v>
       </c>
       <c r="B14" t="n">
-        <v>0.290289922057192</v>
+        <v>0.731695176235481</v>
       </c>
       <c r="C14" t="n">
-        <v>0.00320880001182983</v>
+        <v>0.00200474686344729</v>
       </c>
       <c r="D14" t="n">
-        <v>0.00255140656257823</v>
+        <v>0.000557546247982999</v>
       </c>
       <c r="E14" t="n">
-        <v>0.195644422484868</v>
+        <v>0.0994073269064022</v>
       </c>
       <c r="F14" t="n">
-        <v>0.508305448883531</v>
+        <v>0.166335203746686</v>
       </c>
       <c r="G14" t="n">
-        <v>0.267065227738394</v>
+        <v>0.704350085194416</v>
       </c>
       <c r="H14" t="n">
-        <v>0.468956430949966</v>
+        <v>0.81489391136505</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>65</v>
+        <v>281</v>
       </c>
       <c r="K14" t="n">
-        <v>0.521748357716502</v>
+        <v>0.962725399739317</v>
       </c>
     </row>
     <row r="15">
@@ -1009,34 +1003,34 @@
         <v>24</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0672270517978348</v>
+        <v>0.438978367835041</v>
       </c>
       <c r="C15" t="n">
-        <v>0.00289598549207456</v>
+        <v>0.00166780124710382</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0.786426382520151</v>
+        <v>0.160199615523447</v>
       </c>
       <c r="F15" t="n">
-        <v>0.14345058018994</v>
+        <v>0.399154215394408</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0689533262603746</v>
+        <v>0.403628025335932</v>
       </c>
       <c r="H15" t="n">
-        <v>0.85795560727966</v>
+        <v>0.574253553918444</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>7</v>
+        <v>65</v>
       </c>
       <c r="K15" t="n">
-        <v>0.95453841668201</v>
+        <v>0.678430007314408</v>
       </c>
     </row>
     <row r="16">
@@ -1044,34 +1038,34 @@
         <v>25</v>
       </c>
       <c r="B16" t="n">
-        <v>0.267261540759352</v>
+        <v>0.373970423577829</v>
       </c>
       <c r="C16" t="n">
-        <v>0.00226215124551505</v>
+        <v>0.00142130705285847</v>
       </c>
       <c r="D16" t="n">
-        <v>0.000879566439681236</v>
+        <v>0.00022722255766833</v>
       </c>
       <c r="E16" t="n">
-        <v>0.458728919862272</v>
+        <v>0.326744761948095</v>
       </c>
       <c r="F16" t="n">
-        <v>0.27086782169318</v>
+        <v>0.297636284863549</v>
       </c>
       <c r="G16" t="n">
-        <v>0.241165027648891</v>
+        <v>0.339968985977846</v>
       </c>
       <c r="H16" t="n">
-        <v>0.717141385903593</v>
+        <v>0.685621809097058</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>56</v>
+        <v>189</v>
       </c>
       <c r="K16" t="n">
-        <v>0.797872287597772</v>
+        <v>0.810001794132031</v>
       </c>
     </row>
     <row r="17">
@@ -1079,34 +1073,34 @@
         <v>26</v>
       </c>
       <c r="B17" t="n">
-        <v>0.613742601018099</v>
+        <v>0.558846354173222</v>
       </c>
       <c r="C17" t="n">
-        <v>0.00223234756180933</v>
+        <v>0.0014193849524408</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>0.0023410783781499</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>0.164204733679549</v>
       </c>
       <c r="F17" t="n">
-        <v>0.384025051420092</v>
+        <v>0.273188448816638</v>
       </c>
       <c r="G17" t="n">
-        <v>0.580813392035109</v>
+        <v>0.523330262394422</v>
       </c>
       <c r="H17" t="n">
-        <v>0.580813392035109</v>
+        <v>0.700809705471785</v>
       </c>
       <c r="I17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>40</v>
+        <v>113</v>
       </c>
       <c r="K17" t="n">
-        <v>0.646197415014021</v>
+        <v>0.82794495630889</v>
       </c>
     </row>
     <row r="18">
@@ -1114,34 +1108,34 @@
         <v>27</v>
       </c>
       <c r="B18" t="n">
-        <v>0.291064095536274</v>
+        <v>0.716957238222163</v>
       </c>
       <c r="C18" t="n">
-        <v>0.00219011356863431</v>
+        <v>0.00102157271878075</v>
       </c>
       <c r="D18" t="n">
-        <v>0.00195996259256943</v>
+        <v>0.000978894255889652</v>
       </c>
       <c r="E18" t="n">
-        <v>0.413456401913697</v>
+        <v>0.121734076615393</v>
       </c>
       <c r="F18" t="n">
-        <v>0.291329426388825</v>
+        <v>0.159308218187773</v>
       </c>
       <c r="G18" t="n">
-        <v>0.269502345693775</v>
+        <v>0.686606372921889</v>
       </c>
       <c r="H18" t="n">
-        <v>0.693597021319074</v>
+        <v>0.82030447595168</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="K18" t="n">
-        <v>0.771677458516173</v>
+        <v>0.969117505364149</v>
       </c>
     </row>
     <row r="19">
@@ -1149,34 +1143,34 @@
         <v>28</v>
       </c>
       <c r="B19" t="n">
-        <v>0.620544808437823</v>
+        <v>0.76986224779923</v>
       </c>
       <c r="C19" t="n">
-        <v>0.00152335626765272</v>
+        <v>0.000998915803566382</v>
       </c>
       <c r="D19" t="n">
-        <v>0.000884175818267706</v>
+        <v>0.000683075178377636</v>
       </c>
       <c r="E19" t="n">
-        <v>0.101083803748715</v>
+        <v>0.0757712026972588</v>
       </c>
       <c r="F19" t="n">
-        <v>0.275963855727541</v>
+        <v>0.152684558521568</v>
       </c>
       <c r="G19" t="n">
-        <v>0.585473137873552</v>
+        <v>0.744259396344443</v>
       </c>
       <c r="H19" t="n">
-        <v>0.696841126943101</v>
+        <v>0.829398941679006</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>123</v>
+        <v>162</v>
       </c>
       <c r="K19" t="n">
-        <v>0.775286763496096</v>
+        <v>0.97986181579603</v>
       </c>
     </row>
     <row r="20">
@@ -1184,34 +1178,34 @@
         <v>29</v>
       </c>
       <c r="B20" t="n">
-        <v>0.714058040247069</v>
+        <v>0.768300251906672</v>
       </c>
       <c r="C20" t="n">
-        <v>0.00147046424618289</v>
+        <v>0.000727541488375091</v>
       </c>
       <c r="D20" t="n">
-        <v>0.000790516767697605</v>
+        <v>0.0000000000322177114226779</v>
       </c>
       <c r="E20" t="n">
-        <v>0.0964332699773333</v>
+        <v>0.121755624971913</v>
       </c>
       <c r="F20" t="n">
-        <v>0.187247708761717</v>
+        <v>0.109216581600822</v>
       </c>
       <c r="G20" t="n">
-        <v>0.685037815495985</v>
+        <v>0.740442042149143</v>
       </c>
       <c r="H20" t="n">
-        <v>0.791787786153649</v>
+        <v>0.877142208445714</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>348</v>
+        <v>77</v>
       </c>
       <c r="K20" t="n">
-        <v>0.880921872099729</v>
+        <v>1.03626628138572</v>
       </c>
     </row>
     <row r="21">
@@ -1219,34 +1213,34 @@
         <v>30</v>
       </c>
       <c r="B21" t="n">
-        <v>0.425412658907113</v>
+        <v>0.820561002158408</v>
       </c>
       <c r="C21" t="n">
-        <v>0.00117775247176176</v>
+        <v>0.000524754588886429</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0.160274724421437</v>
+        <v>0.0516777773834399</v>
       </c>
       <c r="F21" t="n">
-        <v>0.413134864199689</v>
+        <v>0.127236465869266</v>
       </c>
       <c r="G21" t="n">
-        <v>0.390253892538015</v>
+        <v>0.797696396934716</v>
       </c>
       <c r="H21" t="n">
-        <v>0.560581236564767</v>
+        <v>0.85628713841967</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>69</v>
+        <v>186</v>
       </c>
       <c r="K21" t="n">
-        <v>0.62368766103041</v>
+        <v>1.01162785257015</v>
       </c>
     </row>
     <row r="22">
@@ -1254,34 +1248,34 @@
         <v>31</v>
       </c>
       <c r="B22" t="n">
-        <v>0.513167534796246</v>
+        <v>0.427867419527176</v>
       </c>
       <c r="C22" t="n">
-        <v>0.000526538244598275</v>
+        <v>0.000497943428325521</v>
       </c>
       <c r="D22" t="n">
-        <v>0.000308092970390875</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0.19469409995433</v>
+        <v>0.0990869936203552</v>
       </c>
       <c r="F22" t="n">
-        <v>0.291303734034435</v>
+        <v>0.472547643424144</v>
       </c>
       <c r="G22" t="n">
-        <v>0.475148658961145</v>
+        <v>0.3962939519219</v>
       </c>
       <c r="H22" t="n">
-        <v>0.685539779593417</v>
+        <v>0.501774408079601</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>344</v>
+        <v>70</v>
       </c>
       <c r="K22" t="n">
-        <v>0.762713187294706</v>
+        <v>0.592802278750847</v>
       </c>
     </row>
     <row r="23">
@@ -1316,7 +1310,7 @@
         <v>545</v>
       </c>
       <c r="K23" t="n">
-        <v>0.929194705642883</v>
+        <v>0.986687187733992</v>
       </c>
     </row>
     <row r="24">
@@ -1324,34 +1318,34 @@
         <v>33</v>
       </c>
       <c r="B24" t="n">
-        <v>0.699493878395775</v>
+        <v>0.602579898392099</v>
       </c>
       <c r="C24" t="n">
-        <v>0.000351646070069813</v>
+        <v>0.000168339101450307</v>
       </c>
       <c r="D24" t="n">
-        <v>0.00145379099986974</v>
+        <v>0.000371228605815744</v>
       </c>
       <c r="E24" t="n">
-        <v>0.148551387502892</v>
+        <v>0.0558167866524409</v>
       </c>
       <c r="F24" t="n">
-        <v>0.150149297031393</v>
+        <v>0.341063747248194</v>
       </c>
       <c r="G24" t="n">
-        <v>0.669362556391039</v>
+        <v>0.566577358141914</v>
       </c>
       <c r="H24" t="n">
-        <v>0.830439706461214</v>
+        <v>0.627488672134975</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>15</v>
+        <v>123</v>
       </c>
       <c r="K24" t="n">
-        <v>0.923924962818007</v>
+        <v>0.741322611799975</v>
       </c>
     </row>
     <row r="25">
@@ -1359,34 +1353,34 @@
         <v>34</v>
       </c>
       <c r="B25" t="n">
-        <v>0.384940586560403</v>
+        <v>0.529659790554638</v>
       </c>
       <c r="C25" t="n">
-        <v>0.000189267098459511</v>
+        <v>0.000166070597163867</v>
       </c>
       <c r="D25" t="n">
-        <v>0.00994199396717096</v>
+        <v>0.0014673370859008</v>
       </c>
       <c r="E25" t="n">
-        <v>0.275044797183194</v>
+        <v>0.157605323985809</v>
       </c>
       <c r="F25" t="n">
-        <v>0.329883355190772</v>
+        <v>0.311101477776488</v>
       </c>
       <c r="G25" t="n">
-        <v>0.35137557752323</v>
+        <v>0.491000856652098</v>
       </c>
       <c r="H25" t="n">
-        <v>0.644641487888799</v>
+        <v>0.663162868651854</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>70</v>
+        <v>239</v>
       </c>
       <c r="K25" t="n">
-        <v>0.717210843959592</v>
+        <v>0.783468533647103</v>
       </c>
     </row>
     <row r="26">
@@ -1394,34 +1388,34 @@
         <v>35</v>
       </c>
       <c r="B26" t="n">
-        <v>0.869664459438648</v>
+        <v>0.757784588351904</v>
       </c>
       <c r="C26" t="n">
-        <v>0.000173270272007812</v>
+        <v>0.000156639143433615</v>
       </c>
       <c r="D26" t="n">
-        <v>0.000143747045541547</v>
+        <v>0.0000524337857680058</v>
       </c>
       <c r="E26" t="n">
-        <v>0.051286862621286</v>
+        <v>0.107475083721816</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0787316606225166</v>
+        <v>0.134531254997078</v>
       </c>
       <c r="G26" t="n">
-        <v>0.851396392407906</v>
+        <v>0.728516115620501</v>
       </c>
       <c r="H26" t="n">
-        <v>0.910022954770122</v>
+        <v>0.849292989739785</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>332</v>
+        <v>269</v>
       </c>
       <c r="K26" t="n">
-        <v>1.01246715216981</v>
+        <v>1.00336488178368</v>
       </c>
     </row>
     <row r="27">
@@ -1429,34 +1423,34 @@
         <v>36</v>
       </c>
       <c r="B27" t="n">
-        <v>0.829043991936807</v>
+        <v>0.64094379746554</v>
       </c>
       <c r="C27" t="n">
-        <v>0.00014705795757248</v>
+        <v>0.000151473113770656</v>
       </c>
       <c r="D27" t="n">
-        <v>0.000244300806196583</v>
+        <v>0.000271284208796558</v>
       </c>
       <c r="E27" t="n">
-        <v>0.0744352258123028</v>
+        <v>0.0906866961792734</v>
       </c>
       <c r="F27" t="n">
-        <v>0.096129423487121</v>
+        <v>0.267946749032619</v>
       </c>
       <c r="G27" t="n">
-        <v>0.806551648993465</v>
+        <v>0.606453304070146</v>
       </c>
       <c r="H27" t="n">
-        <v>0.890799615987538</v>
+        <v>0.705842487360471</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>158</v>
+        <v>300</v>
       </c>
       <c r="K27" t="n">
-        <v>0.991079780598161</v>
+        <v>0.833890744942247</v>
       </c>
     </row>
     <row r="28">
@@ -1464,34 +1458,34 @@
         <v>37</v>
       </c>
       <c r="B28" t="n">
-        <v>0.611099667737005</v>
+        <v>0.837414564528513</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0000990596724665182</v>
+        <v>0.000117099741274678</v>
       </c>
       <c r="D28" t="n">
-        <v>0.00276874204579033</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0.107436901589122</v>
+        <v>0.0472333806314191</v>
       </c>
       <c r="F28" t="n">
-        <v>0.278595628955616</v>
+        <v>0.115234955098794</v>
       </c>
       <c r="G28" t="n">
-        <v>0.574026769078498</v>
+        <v>0.815477425484591</v>
       </c>
       <c r="H28" t="n">
-        <v>0.694204571815361</v>
+        <v>0.869103120726726</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>317</v>
+        <v>170</v>
       </c>
       <c r="K28" t="n">
-        <v>0.772353402916861</v>
+        <v>1.02676880713802</v>
       </c>
     </row>
     <row r="29">
@@ -1499,34 +1493,34 @@
         <v>38</v>
       </c>
       <c r="B29" t="n">
-        <v>0.852658152686062</v>
+        <v>0.426968257563279</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0000936311086709379</v>
+        <v>0.0001166187676936</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>0.00651513487922298</v>
       </c>
       <c r="E29" t="n">
-        <v>0.0459779120905491</v>
+        <v>0.212561531565997</v>
       </c>
       <c r="F29" t="n">
-        <v>0.101270304114718</v>
+        <v>0.353838457223808</v>
       </c>
       <c r="G29" t="n">
-        <v>0.832402338635967</v>
+        <v>0.393253091520728</v>
       </c>
       <c r="H29" t="n">
-        <v>0.884730329743403</v>
+        <v>0.617709929020618</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>173</v>
+        <v>45</v>
       </c>
       <c r="K29" t="n">
-        <v>0.984327255371085</v>
+        <v>0.729769887890249</v>
       </c>
     </row>
     <row r="30">
@@ -1534,34 +1528,34 @@
         <v>39</v>
       </c>
       <c r="B30" t="n">
-        <v>0.853820131363927</v>
+        <v>0.43393967739316</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0000882989596068233</v>
+        <v>0.0000969731869586327</v>
       </c>
       <c r="D30" t="n">
-        <v>0.000435078954218966</v>
+        <v>0.000306016764316217</v>
       </c>
       <c r="E30" t="n">
-        <v>0.0230515316445126</v>
+        <v>0.28173586858317</v>
       </c>
       <c r="F30" t="n">
-        <v>0.122604959077735</v>
+        <v>0.283921464072395</v>
       </c>
       <c r="G30" t="n">
-        <v>0.834170248557512</v>
+        <v>0.397842360517909</v>
       </c>
       <c r="H30" t="n">
-        <v>0.860236075416732</v>
+        <v>0.697692299856389</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>303</v>
+        <v>213</v>
       </c>
       <c r="K30" t="n">
-        <v>0.957075604418048</v>
+        <v>0.824262016081487</v>
       </c>
     </row>
     <row r="31">
@@ -1569,34 +1563,34 @@
         <v>40</v>
       </c>
       <c r="B31" t="n">
-        <v>0.79212372576946</v>
+        <v>0.872440988033772</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0000822014437182312</v>
+        <v>0.000032325353749338</v>
       </c>
       <c r="D31" t="n">
-        <v>0.000116793317249651</v>
+        <v>0.000212459689493825</v>
       </c>
       <c r="E31" t="n">
-        <v>0.0738112488924916</v>
+        <v>0.0482870351386123</v>
       </c>
       <c r="F31" t="n">
-        <v>0.133866030577081</v>
+        <v>0.0790271917843722</v>
       </c>
       <c r="G31" t="n">
-        <v>0.765618273692792</v>
+        <v>0.854414169345683</v>
       </c>
       <c r="H31" t="n">
-        <v>0.849066106850373</v>
+        <v>0.90962166518149</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>279</v>
+        <v>400</v>
       </c>
       <c r="K31" t="n">
-        <v>0.944648196730222</v>
+        <v>1.07463789949842</v>
       </c>
     </row>
     <row r="32">
@@ -1604,34 +1598,34 @@
         <v>41</v>
       </c>
       <c r="B32" t="n">
-        <v>0.819596310240814</v>
+        <v>0.833802234842852</v>
       </c>
       <c r="C32" t="n">
-        <v>0.000073952809541818</v>
+        <v>0.0000319827603954961</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0000828484472922628</v>
+        <v>0.0000135598372154686</v>
       </c>
       <c r="E32" t="n">
-        <v>0.037294340437146</v>
+        <v>0.0585916392750233</v>
       </c>
       <c r="F32" t="n">
-        <v>0.142952548065206</v>
+        <v>0.107560583284514</v>
       </c>
       <c r="G32" t="n">
-        <v>0.795946365860109</v>
+        <v>0.811435461472815</v>
       </c>
       <c r="H32" t="n">
-        <v>0.838018438173345</v>
+        <v>0.877889155430651</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="K32" t="n">
-        <v>0.932356856621805</v>
+        <v>1.03714873347504</v>
       </c>
     </row>
     <row r="33">
@@ -1639,34 +1633,34 @@
         <v>42</v>
       </c>
       <c r="B33" t="n">
-        <v>0.462378464296039</v>
+        <v>0.585281173270537</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0000696857366886053</v>
+        <v>0.0000000021934861046759</v>
       </c>
       <c r="D33" t="n">
-        <v>0.00424086345130496</v>
+        <v>0.000998052830366353</v>
       </c>
       <c r="E33" t="n">
-        <v>0.191824711754371</v>
+        <v>0.125710411472585</v>
       </c>
       <c r="F33" t="n">
-        <v>0.341486274761597</v>
+        <v>0.288010360233026</v>
       </c>
       <c r="G33" t="n">
-        <v>0.424821664782073</v>
+        <v>0.547991226794055</v>
       </c>
       <c r="H33" t="n">
-        <v>0.633342576656909</v>
+        <v>0.684996271868941</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>116</v>
+        <v>296</v>
       </c>
       <c r="K33" t="n">
-        <v>0.704639978117575</v>
+        <v>0.809262776979501</v>
       </c>
     </row>
     <row r="34">
@@ -1674,34 +1668,34 @@
         <v>43</v>
       </c>
       <c r="B34" t="n">
-        <v>0.727049200378807</v>
+        <v>0.719903875525779</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0000663548957786682</v>
+        <v>0.00000000061265664282757</v>
       </c>
       <c r="D34" t="n">
-        <v>0.000198432208487203</v>
+        <v>0.00103295515465372</v>
       </c>
       <c r="E34" t="n">
-        <v>0.0404461320066015</v>
+        <v>0.0816818229613662</v>
       </c>
       <c r="F34" t="n">
-        <v>0.232239880510326</v>
+        <v>0.197381345745544</v>
       </c>
       <c r="G34" t="n">
-        <v>0.695475937642484</v>
+        <v>0.688955130756834</v>
       </c>
       <c r="H34" t="n">
-        <v>0.740745717671199</v>
+        <v>0.780233877626598</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>359</v>
+        <v>476</v>
       </c>
       <c r="K34" t="n">
-        <v>0.82413383456024</v>
+        <v>0.921777621911484</v>
       </c>
     </row>
     <row r="35">
@@ -1709,34 +1703,34 @@
         <v>44</v>
       </c>
       <c r="B35" t="n">
-        <v>0.543954386495348</v>
+        <v>0.0961008051263924</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0000254225807014896</v>
+        <v>0.00000000011212547750565</v>
       </c>
       <c r="D35" t="n">
-        <v>0.00189840916344437</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0.133970164423244</v>
+        <v>0.424121950058838</v>
       </c>
       <c r="F35" t="n">
-        <v>0.320151617337262</v>
+        <v>0.479777244702644</v>
       </c>
       <c r="G35" t="n">
-        <v>0.505781882097845</v>
+        <v>0.102003105698949</v>
       </c>
       <c r="H35" t="n">
-        <v>0.651875254425072</v>
+        <v>0.51649054716778</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>218</v>
+        <v>5</v>
       </c>
       <c r="K35" t="n">
-        <v>0.725258938753302</v>
+        <v>0.61018810123485</v>
       </c>
     </row>
     <row r="36">
@@ -1744,34 +1738,34 @@
         <v>45</v>
       </c>
       <c r="B36" t="n">
-        <v>0.559041337624975</v>
+        <v>0.687316656485935</v>
       </c>
       <c r="C36" t="n">
-        <v>0.00000000994609786744074</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0.00805897613548158</v>
+        <v>0.000412050072315034</v>
       </c>
       <c r="E36" t="n">
-        <v>0.168751993990525</v>
+        <v>0.0623384394640981</v>
       </c>
       <c r="F36" t="n">
-        <v>0.26414768230292</v>
+        <v>0.249932853977652</v>
       </c>
       <c r="G36" t="n">
-        <v>0.518363199637967</v>
+        <v>0.653640992632705</v>
       </c>
       <c r="H36" t="n">
-        <v>0.707861936812422</v>
+        <v>0.72246094429661</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>5</v>
+        <v>236</v>
       </c>
       <c r="K36" t="n">
-        <v>0.787548221214836</v>
+        <v>0.853523988452553</v>
       </c>
     </row>
     <row r="37">
@@ -1779,34 +1773,34 @@
         <v>46</v>
       </c>
       <c r="B37" t="n">
-        <v>0.488360863414684</v>
+        <v>0.848723569201266</v>
       </c>
       <c r="C37" t="n">
-        <v>0.0000000000873316446585076</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0.00113074116778186</v>
+        <v>0.000271979444440125</v>
       </c>
       <c r="E37" t="n">
-        <v>0.198075878372226</v>
+        <v>0.0278324192487741</v>
       </c>
       <c r="F37" t="n">
-        <v>0.312432516957977</v>
+        <v>0.12317203210552</v>
       </c>
       <c r="G37" t="n">
-        <v>0.453047317102296</v>
+        <v>0.828131497867783</v>
       </c>
       <c r="H37" t="n">
-        <v>0.66569505453095</v>
+        <v>0.859881491012883</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>10</v>
+        <v>180</v>
       </c>
       <c r="K37" t="n">
-        <v>0.740634478000319</v>
+        <v>1.01587426365366</v>
       </c>
     </row>
     <row r="38">
@@ -1814,34 +1808,34 @@
         <v>47</v>
       </c>
       <c r="B38" t="n">
-        <v>0.463724500587331</v>
+        <v>0.386542946810526</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0000000000422646606044627</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>0.00379766649722013</v>
       </c>
       <c r="E38" t="n">
-        <v>0.323676370002636</v>
+        <v>0.360603953405287</v>
       </c>
       <c r="F38" t="n">
-        <v>0.212599129367768</v>
+        <v>0.249055433286966</v>
       </c>
       <c r="G38" t="n">
-        <v>0.427684892741287</v>
+        <v>0.352089917827804</v>
       </c>
       <c r="H38" t="n">
-        <v>0.773517559608462</v>
+        <v>0.733781328018738</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>23</v>
+        <v>158</v>
       </c>
       <c r="K38" t="n">
-        <v>0.86059490766137</v>
+        <v>0.8668980249892</v>
       </c>
     </row>
     <row r="39">
@@ -1849,34 +1843,34 @@
         <v>48</v>
       </c>
       <c r="B39" t="n">
-        <v>0.704771933267069</v>
+        <v>0.37807310196643</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>0.000378740333701111</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>0.0713782382363947</v>
+        <v>0.332560479276241</v>
       </c>
       <c r="F39" t="n">
-        <v>0.223471088162835</v>
+        <v>0.289366418757329</v>
       </c>
       <c r="G39" t="n">
-        <v>0.672748599514445</v>
+        <v>0.343832589874797</v>
       </c>
       <c r="H39" t="n">
-        <v>0.752183683947847</v>
+        <v>0.695011090919619</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>485</v>
+        <v>94</v>
       </c>
       <c r="K39" t="n">
-        <v>0.83685940931858</v>
+        <v>0.821094403820018</v>
       </c>
     </row>
     <row r="40">
@@ -1884,34 +1878,34 @@
         <v>49</v>
       </c>
       <c r="B40" t="n">
-        <v>0.63384238538854</v>
+        <v>0.462594850344036</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0.000247088184992886</v>
+        <v>0.00655884593311509</v>
       </c>
       <c r="E40" t="n">
-        <v>0.0714734102833318</v>
+        <v>0.226594375792812</v>
       </c>
       <c r="F40" t="n">
-        <v>0.294437116143136</v>
+        <v>0.304251927930038</v>
       </c>
       <c r="G40" t="n">
-        <v>0.597605961500629</v>
+        <v>0.426229913904359</v>
       </c>
       <c r="H40" t="n">
-        <v>0.67610273501437</v>
+        <v>0.669632741996233</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>305</v>
+        <v>87</v>
       </c>
       <c r="K40" t="n">
-        <v>0.752213784395291</v>
+        <v>0.791112119290412</v>
       </c>
     </row>
     <row r="41">
@@ -1919,34 +1913,34 @@
         <v>50</v>
       </c>
       <c r="B41" t="n">
-        <v>0.432888940415213</v>
+        <v>0.837978380073616</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0000788533276278832</v>
+        <v>0.00000000702985859080831</v>
       </c>
       <c r="E41" t="n">
-        <v>0.293499512592865</v>
+        <v>0.0456984443689197</v>
       </c>
       <c r="F41" t="n">
-        <v>0.273532693664294</v>
+        <v>0.116323168527606</v>
       </c>
       <c r="G41" t="n">
-        <v>0.396579408496514</v>
+        <v>0.81625083623269</v>
       </c>
       <c r="H41" t="n">
-        <v>0.709425174778841</v>
+        <v>0.867852167592738</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>257</v>
+        <v>17</v>
       </c>
       <c r="K41" t="n">
-        <v>0.789287437883742</v>
+        <v>1.02529091616451</v>
       </c>
     </row>
     <row r="42">
@@ -1954,34 +1948,34 @@
         <v>51</v>
       </c>
       <c r="B42" t="n">
-        <v>0.851508224852135</v>
+        <v>0.333846031688605</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>0.000184124612198818</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>0.0237853851351185</v>
+        <v>0.461410792670219</v>
       </c>
       <c r="F42" t="n">
-        <v>0.124522265400548</v>
+        <v>0.204743175641176</v>
       </c>
       <c r="G42" t="n">
-        <v>0.831282929159485</v>
+        <v>0.302238642799098</v>
       </c>
       <c r="H42" t="n">
-        <v>0.858423713523098</v>
+        <v>0.784063592677906</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>214</v>
+        <v>15</v>
       </c>
       <c r="K42" t="n">
-        <v>0.955059219143884</v>
+        <v>0.926302093014087</v>
       </c>
     </row>
     <row r="43">
@@ -1989,34 +1983,34 @@
         <v>52</v>
       </c>
       <c r="B43" t="n">
-        <v>0.711071865660795</v>
+        <v>0.523398337714032</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0.000574194518321415</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0.102500683001484</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0.185853256819399</v>
+        <v>0.476601662285968</v>
       </c>
       <c r="G43" t="n">
-        <v>0.679623921760039</v>
+        <v>0.488209878601468</v>
       </c>
       <c r="H43" t="n">
-        <v>0.793682880750468</v>
+        <v>0.488209878601468</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J43" t="n">
-        <v>181</v>
+        <v>13</v>
       </c>
       <c r="K43" t="n">
-        <v>0.883030303562338</v>
+        <v>0.57677698161464</v>
       </c>
     </row>
     <row r="44">
@@ -2024,34 +2018,34 @@
         <v>53</v>
       </c>
       <c r="B44" t="n">
-        <v>0.339201154884198</v>
+        <v>0.609348070191998</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0.00398511694644126</v>
+        <v>0.00293077945241469</v>
       </c>
       <c r="E44" t="n">
-        <v>0.401231560364958</v>
+        <v>0.15328378342661</v>
       </c>
       <c r="F44" t="n">
-        <v>0.255582167804402</v>
+        <v>0.234437366928977</v>
       </c>
       <c r="G44" t="n">
-        <v>0.306560150502488</v>
+        <v>0.579302980394392</v>
       </c>
       <c r="H44" t="n">
-        <v>0.728405853907662</v>
+        <v>0.740856336605212</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>114</v>
+        <v>13</v>
       </c>
       <c r="K44" t="n">
-        <v>0.810404832827544</v>
+        <v>0.875256524635077</v>
       </c>
     </row>
     <row r="45">
@@ -2059,104 +2053,34 @@
         <v>54</v>
       </c>
       <c r="B45" t="n">
-        <v>0.839043546638938</v>
+        <v>0.717675809553098</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0.00147203319189678</v>
+        <v>0.000381218845166238</v>
       </c>
       <c r="E45" t="n">
-        <v>0.0474003405738775</v>
+        <v>0.128203492388182</v>
       </c>
       <c r="F45" t="n">
-        <v>0.112084079595288</v>
+        <v>0.153739479213554</v>
       </c>
       <c r="G45" t="n">
-        <v>0.816597633024958</v>
+        <v>0.685872983503193</v>
       </c>
       <c r="H45" t="n">
-        <v>0.869998642392218</v>
+        <v>0.825808833391451</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="K45" t="n">
-        <v>0.967937174812207</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="s">
-        <v>55</v>
-      </c>
-      <c r="B46" t="n">
-        <v>0.122144766722706</v>
-      </c>
-      <c r="C46" t="n">
-        <v>0</v>
-      </c>
-      <c r="D46" t="n">
-        <v>0.000173493343173919</v>
-      </c>
-      <c r="E46" t="n">
-        <v>0.426136468757884</v>
-      </c>
-      <c r="F46" t="n">
-        <v>0.451545271176235</v>
-      </c>
-      <c r="G46" t="n">
-        <v>0.121681788685636</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0.544508452935171</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="n">
-        <v>7</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0.605805512691625</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="s">
-        <v>56</v>
-      </c>
-      <c r="B47" t="n">
-        <v>0.298781107055743</v>
-      </c>
-      <c r="C47" t="n">
-        <v>0</v>
-      </c>
-      <c r="D47" t="n">
-        <v>0</v>
-      </c>
-      <c r="E47" t="n">
-        <v>0.549382591002005</v>
-      </c>
-      <c r="F47" t="n">
-        <v>0.151836301942251</v>
-      </c>
-      <c r="G47" t="n">
-        <v>0.27464583930789</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0.841575576524553</v>
-      </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
-      <c r="J47" t="n">
-        <v>6</v>
-      </c>
-      <c r="K47" t="n">
-        <v>0.936314433425163</v>
+        <v>0.975620418985917</v>
       </c>
     </row>
   </sheetData>

--- a/tables/S5_SWIP-TMT_Module_GOF.xlsx
+++ b/tables/S5_SWIP-TMT_Module_GOF.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
   <si>
     <t xml:space="preserve">Module</t>
   </si>
@@ -42,9 +42,6 @@
   </si>
   <si>
     <t xml:space="preserve">Size</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quality</t>
   </si>
   <si>
     <t xml:space="preserve">M23</t>
@@ -539,13 +536,10 @@
       <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2" t="n">
         <v>0.0190829280576653</v>
@@ -574,13 +568,10 @@
       <c r="J2" t="n">
         <v>134</v>
       </c>
-      <c r="K2" t="n">
-        <v>0.357701993208696</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3" t="n">
         <v>0.18708523393095</v>
@@ -609,13 +600,10 @@
       <c r="J3" t="n">
         <v>62</v>
       </c>
-      <c r="K3" t="n">
-        <v>0.569492414636734</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" t="n">
         <v>0.314714580216519</v>
@@ -644,13 +632,10 @@
       <c r="J4" t="n">
         <v>72</v>
       </c>
-      <c r="K4" t="n">
-        <v>0.686471162634956</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B5" t="n">
         <v>0.561330190740672</v>
@@ -679,13 +664,10 @@
       <c r="J5" t="n">
         <v>146</v>
       </c>
-      <c r="K5" t="n">
-        <v>0.849197471149866</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B6" t="n">
         <v>0.609581037606463</v>
@@ -714,13 +696,10 @@
       <c r="J6" t="n">
         <v>116</v>
       </c>
-      <c r="K6" t="n">
-        <v>0.860999388836099</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B7" t="n">
         <v>0.218819662787707</v>
@@ -749,13 +728,10 @@
       <c r="J7" t="n">
         <v>34</v>
       </c>
-      <c r="K7" t="n">
-        <v>0.834358656202062</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B8" t="n">
         <v>0.0571533953163385</v>
@@ -784,13 +760,10 @@
       <c r="J8" t="n">
         <v>11</v>
       </c>
-      <c r="K8" t="n">
-        <v>0.696973447534096</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B9" t="n">
         <v>0.767906901732762</v>
@@ -819,13 +792,10 @@
       <c r="J9" t="n">
         <v>241</v>
       </c>
-      <c r="K9" t="n">
-        <v>0.949456747678342</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B10" t="n">
         <v>0.270016217504006</v>
@@ -854,13 +824,10 @@
       <c r="J10" t="n">
         <v>41</v>
       </c>
-      <c r="K10" t="n">
-        <v>0.972576931439774</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B11" t="n">
         <v>0.312818800808774</v>
@@ -889,13 +856,10 @@
       <c r="J11" t="n">
         <v>49</v>
       </c>
-      <c r="K11" t="n">
-        <v>0.529219019134378</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B12" t="n">
         <v>0.628450759218874</v>
@@ -924,13 +888,10 @@
       <c r="J12" t="n">
         <v>135</v>
       </c>
-      <c r="K12" t="n">
-        <v>0.824890349634423</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="n">
         <v>0.0672270517978348</v>
@@ -959,13 +920,10 @@
       <c r="J13" t="n">
         <v>7</v>
       </c>
-      <c r="K13" t="n">
-        <v>1.01359900160904</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="n">
         <v>0.731695176235481</v>
@@ -994,13 +952,10 @@
       <c r="J14" t="n">
         <v>281</v>
       </c>
-      <c r="K14" t="n">
-        <v>0.962725399739317</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B15" t="n">
         <v>0.438978367835041</v>
@@ -1029,13 +984,10 @@
       <c r="J15" t="n">
         <v>65</v>
       </c>
-      <c r="K15" t="n">
-        <v>0.678430007314408</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B16" t="n">
         <v>0.373970423577829</v>
@@ -1064,13 +1016,10 @@
       <c r="J16" t="n">
         <v>189</v>
       </c>
-      <c r="K16" t="n">
-        <v>0.810001794132031</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B17" t="n">
         <v>0.558846354173222</v>
@@ -1099,13 +1048,10 @@
       <c r="J17" t="n">
         <v>113</v>
       </c>
-      <c r="K17" t="n">
-        <v>0.82794495630889</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B18" t="n">
         <v>0.716957238222163</v>
@@ -1134,13 +1080,10 @@
       <c r="J18" t="n">
         <v>12</v>
       </c>
-      <c r="K18" t="n">
-        <v>0.969117505364149</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B19" t="n">
         <v>0.76986224779923</v>
@@ -1169,13 +1112,10 @@
       <c r="J19" t="n">
         <v>162</v>
       </c>
-      <c r="K19" t="n">
-        <v>0.97986181579603</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B20" t="n">
         <v>0.768300251906672</v>
@@ -1204,13 +1144,10 @@
       <c r="J20" t="n">
         <v>77</v>
       </c>
-      <c r="K20" t="n">
-        <v>1.03626628138572</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B21" t="n">
         <v>0.820561002158408</v>
@@ -1239,13 +1176,10 @@
       <c r="J21" t="n">
         <v>186</v>
       </c>
-      <c r="K21" t="n">
-        <v>1.01162785257015</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B22" t="n">
         <v>0.427867419527176</v>
@@ -1274,13 +1208,10 @@
       <c r="J22" t="n">
         <v>70</v>
       </c>
-      <c r="K22" t="n">
-        <v>0.592802278750847</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B23" t="n">
         <v>0.779087669463511</v>
@@ -1309,13 +1240,10 @@
       <c r="J23" t="n">
         <v>545</v>
       </c>
-      <c r="K23" t="n">
-        <v>0.986687187733992</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B24" t="n">
         <v>0.602579898392099</v>
@@ -1344,13 +1272,10 @@
       <c r="J24" t="n">
         <v>123</v>
       </c>
-      <c r="K24" t="n">
-        <v>0.741322611799975</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B25" t="n">
         <v>0.529659790554638</v>
@@ -1379,13 +1304,10 @@
       <c r="J25" t="n">
         <v>239</v>
       </c>
-      <c r="K25" t="n">
-        <v>0.783468533647103</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B26" t="n">
         <v>0.757784588351904</v>
@@ -1414,13 +1336,10 @@
       <c r="J26" t="n">
         <v>269</v>
       </c>
-      <c r="K26" t="n">
-        <v>1.00336488178368</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B27" t="n">
         <v>0.64094379746554</v>
@@ -1449,13 +1368,10 @@
       <c r="J27" t="n">
         <v>300</v>
       </c>
-      <c r="K27" t="n">
-        <v>0.833890744942247</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B28" t="n">
         <v>0.837414564528513</v>
@@ -1484,13 +1400,10 @@
       <c r="J28" t="n">
         <v>170</v>
       </c>
-      <c r="K28" t="n">
-        <v>1.02676880713802</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B29" t="n">
         <v>0.426968257563279</v>
@@ -1519,13 +1432,10 @@
       <c r="J29" t="n">
         <v>45</v>
       </c>
-      <c r="K29" t="n">
-        <v>0.729769887890249</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B30" t="n">
         <v>0.43393967739316</v>
@@ -1554,13 +1464,10 @@
       <c r="J30" t="n">
         <v>213</v>
       </c>
-      <c r="K30" t="n">
-        <v>0.824262016081487</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B31" t="n">
         <v>0.872440988033772</v>
@@ -1589,13 +1496,10 @@
       <c r="J31" t="n">
         <v>400</v>
       </c>
-      <c r="K31" t="n">
-        <v>1.07463789949842</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B32" t="n">
         <v>0.833802234842852</v>
@@ -1624,13 +1528,10 @@
       <c r="J32" t="n">
         <v>159</v>
       </c>
-      <c r="K32" t="n">
-        <v>1.03714873347504</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B33" t="n">
         <v>0.585281173270537</v>
@@ -1659,13 +1560,10 @@
       <c r="J33" t="n">
         <v>296</v>
       </c>
-      <c r="K33" t="n">
-        <v>0.809262776979501</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B34" t="n">
         <v>0.719903875525779</v>
@@ -1694,13 +1592,10 @@
       <c r="J34" t="n">
         <v>476</v>
       </c>
-      <c r="K34" t="n">
-        <v>0.921777621911484</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B35" t="n">
         <v>0.0961008051263924</v>
@@ -1729,13 +1624,10 @@
       <c r="J35" t="n">
         <v>5</v>
       </c>
-      <c r="K35" t="n">
-        <v>0.61018810123485</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B36" t="n">
         <v>0.687316656485935</v>
@@ -1764,13 +1656,10 @@
       <c r="J36" t="n">
         <v>236</v>
       </c>
-      <c r="K36" t="n">
-        <v>0.853523988452553</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B37" t="n">
         <v>0.848723569201266</v>
@@ -1799,13 +1688,10 @@
       <c r="J37" t="n">
         <v>180</v>
       </c>
-      <c r="K37" t="n">
-        <v>1.01587426365366</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B38" t="n">
         <v>0.386542946810526</v>
@@ -1834,13 +1720,10 @@
       <c r="J38" t="n">
         <v>158</v>
       </c>
-      <c r="K38" t="n">
-        <v>0.8668980249892</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B39" t="n">
         <v>0.37807310196643</v>
@@ -1869,13 +1752,10 @@
       <c r="J39" t="n">
         <v>94</v>
       </c>
-      <c r="K39" t="n">
-        <v>0.821094403820018</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B40" t="n">
         <v>0.462594850344036</v>
@@ -1904,13 +1784,10 @@
       <c r="J40" t="n">
         <v>87</v>
       </c>
-      <c r="K40" t="n">
-        <v>0.791112119290412</v>
-      </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B41" t="n">
         <v>0.837978380073616</v>
@@ -1939,13 +1816,10 @@
       <c r="J41" t="n">
         <v>17</v>
       </c>
-      <c r="K41" t="n">
-        <v>1.02529091616451</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B42" t="n">
         <v>0.333846031688605</v>
@@ -1974,13 +1848,10 @@
       <c r="J42" t="n">
         <v>15</v>
       </c>
-      <c r="K42" t="n">
-        <v>0.926302093014087</v>
-      </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B43" t="n">
         <v>0.523398337714032</v>
@@ -2009,13 +1880,10 @@
       <c r="J43" t="n">
         <v>13</v>
       </c>
-      <c r="K43" t="n">
-        <v>0.57677698161464</v>
-      </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B44" t="n">
         <v>0.609348070191998</v>
@@ -2044,13 +1912,10 @@
       <c r="J44" t="n">
         <v>13</v>
       </c>
-      <c r="K44" t="n">
-        <v>0.875256524635077</v>
-      </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B45" t="n">
         <v>0.717675809553098</v>
@@ -2078,9 +1943,6 @@
       </c>
       <c r="J45" t="n">
         <v>5</v>
-      </c>
-      <c r="K45" t="n">
-        <v>0.975620418985917</v>
       </c>
     </row>
   </sheetData>
